--- a/generated_model_inputs.xlsx
+++ b/generated_model_inputs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://netorg3699892.sharepoint.com/sites/OneForecast/Shared Documents/Projects/Cement Australia/13 Simulation/06 Python/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c73fb9c84d8c23a4/00 Work/01 Cement Simulation/00 Python/01 Current Work/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="11_EC41157B86A5C71261A239D1B36E0AFAE48655F6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{785E58DA-44C9-4D6C-BF1C-4CC630281FE9}"/>
+  <xr:revisionPtr revIDLastSave="99" documentId="11_EC41157B86A5C71261A239D1B36E0AFAE48655F6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C2892249-B86B-4C5D-9E5D-FE2F5B2202C0}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Network" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,25 @@
     <sheet name="Move" sheetId="5" r:id="rId5"/>
     <sheet name="Deliver" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1421" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1428" uniqueCount="195">
   <si>
     <t>Level</t>
   </si>
@@ -594,7 +607,22 @@
     <t>Unnamed: 3</t>
   </si>
   <si>
-    <t>D1</t>
+    <t>V1, V10, V11, V15, V17, V19, V4, V6, V9</t>
+  </si>
+  <si>
+    <t>V16, V18, V2</t>
+  </si>
+  <si>
+    <t>V16, V18, V2, V3</t>
+  </si>
+  <si>
+    <t>V1, V11, V12, V15, V17, V19, V4, V6, V9</t>
+  </si>
+  <si>
+    <t>V1, V10, V11, V12, V15, V17, V19, V4, V6, V9</t>
+  </si>
+  <si>
+    <t>V13, V14, V5, V7, V8</t>
   </si>
 </sst>
 </file>
@@ -960,7 +988,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P103"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -6365,8 +6393,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6375,7 +6403,7 @@
     <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="41.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" bestFit="1" customWidth="1"/>
@@ -6432,6 +6460,15 @@
       <c r="D2" t="s">
         <v>81</v>
       </c>
+      <c r="E2" t="s">
+        <v>189</v>
+      </c>
+      <c r="I2">
+        <v>6600</v>
+      </c>
+      <c r="K2">
+        <v>6600</v>
+      </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -6446,6 +6483,15 @@
       <c r="D3" t="s">
         <v>51</v>
       </c>
+      <c r="E3" t="s">
+        <v>189</v>
+      </c>
+      <c r="I3">
+        <v>4400</v>
+      </c>
+      <c r="K3">
+        <v>4400</v>
+      </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -6461,7 +6507,13 @@
         <v>81</v>
       </c>
       <c r="E4" t="s">
-        <v>189</v>
+        <v>190</v>
+      </c>
+      <c r="I4">
+        <v>1200</v>
+      </c>
+      <c r="K4">
+        <v>1200</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -6478,7 +6530,13 @@
         <v>53</v>
       </c>
       <c r="E5" t="s">
-        <v>189</v>
+        <v>191</v>
+      </c>
+      <c r="I5">
+        <v>3000</v>
+      </c>
+      <c r="K5">
+        <v>3000</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -6495,7 +6553,13 @@
         <v>84</v>
       </c>
       <c r="E6" t="s">
-        <v>189</v>
+        <v>191</v>
+      </c>
+      <c r="I6">
+        <v>3200</v>
+      </c>
+      <c r="K6">
+        <v>3200</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -6511,6 +6575,15 @@
       <c r="D7" t="s">
         <v>31</v>
       </c>
+      <c r="E7" t="s">
+        <v>192</v>
+      </c>
+      <c r="I7">
+        <v>1440</v>
+      </c>
+      <c r="K7">
+        <v>1440</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -6525,6 +6598,15 @@
       <c r="D8" t="s">
         <v>53</v>
       </c>
+      <c r="E8" t="s">
+        <v>193</v>
+      </c>
+      <c r="I8">
+        <v>3600</v>
+      </c>
+      <c r="K8">
+        <v>3600</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -6539,6 +6621,15 @@
       <c r="D9" t="s">
         <v>51</v>
       </c>
+      <c r="E9" t="s">
+        <v>189</v>
+      </c>
+      <c r="I9">
+        <v>4400</v>
+      </c>
+      <c r="K9">
+        <v>4400</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -6553,6 +6644,15 @@
       <c r="D10" t="s">
         <v>48</v>
       </c>
+      <c r="E10" t="s">
+        <v>193</v>
+      </c>
+      <c r="I10">
+        <v>2200</v>
+      </c>
+      <c r="K10">
+        <v>2200</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -6567,6 +6667,27 @@
       <c r="D11" t="s">
         <v>56</v>
       </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>625</v>
+      </c>
+      <c r="H11">
+        <v>625</v>
+      </c>
+      <c r="I11">
+        <v>450</v>
+      </c>
+      <c r="J11">
+        <v>625</v>
+      </c>
+      <c r="K11">
+        <v>450</v>
+      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -6609,6 +6730,27 @@
       <c r="D14" t="s">
         <v>112</v>
       </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>625</v>
+      </c>
+      <c r="H14">
+        <v>625</v>
+      </c>
+      <c r="I14">
+        <v>650</v>
+      </c>
+      <c r="J14">
+        <v>625</v>
+      </c>
+      <c r="K14">
+        <v>650</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -6623,6 +6765,27 @@
       <c r="D15" t="s">
         <v>117</v>
       </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>625</v>
+      </c>
+      <c r="H15">
+        <v>625</v>
+      </c>
+      <c r="I15">
+        <v>200</v>
+      </c>
+      <c r="J15">
+        <v>625</v>
+      </c>
+      <c r="K15">
+        <v>200</v>
+      </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -6637,6 +6800,27 @@
       <c r="D16" t="s">
         <v>115</v>
       </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>625</v>
+      </c>
+      <c r="H16">
+        <v>625</v>
+      </c>
+      <c r="I16">
+        <v>500</v>
+      </c>
+      <c r="J16">
+        <v>625</v>
+      </c>
+      <c r="K16">
+        <v>500</v>
+      </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
@@ -6661,13 +6845,13 @@
         <v>625</v>
       </c>
       <c r="H17">
-        <v>30</v>
+        <v>625</v>
       </c>
       <c r="I17">
         <v>60</v>
       </c>
       <c r="J17">
-        <v>30</v>
+        <v>625</v>
       </c>
       <c r="K17">
         <v>90</v>
@@ -6686,6 +6870,27 @@
       <c r="D18" t="s">
         <v>155</v>
       </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>625</v>
+      </c>
+      <c r="H18">
+        <v>625</v>
+      </c>
+      <c r="I18">
+        <v>140</v>
+      </c>
+      <c r="J18">
+        <v>625</v>
+      </c>
+      <c r="K18">
+        <v>140</v>
+      </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
@@ -6728,6 +6933,15 @@
       <c r="D21" t="s">
         <v>81</v>
       </c>
+      <c r="E21" t="s">
+        <v>194</v>
+      </c>
+      <c r="I21">
+        <v>2900</v>
+      </c>
+      <c r="K21">
+        <v>2900</v>
+      </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
@@ -6742,6 +6956,27 @@
       <c r="D22" t="s">
         <v>154</v>
       </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>625</v>
+      </c>
+      <c r="H22">
+        <v>625</v>
+      </c>
+      <c r="I22">
+        <v>170</v>
+      </c>
+      <c r="J22">
+        <v>625</v>
+      </c>
+      <c r="K22">
+        <v>170</v>
+      </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
@@ -6756,6 +6991,27 @@
       <c r="D23" t="s">
         <v>117</v>
       </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>625</v>
+      </c>
+      <c r="H23">
+        <v>625</v>
+      </c>
+      <c r="I23">
+        <v>200</v>
+      </c>
+      <c r="J23">
+        <v>625</v>
+      </c>
+      <c r="K23">
+        <v>200</v>
+      </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
@@ -6769,6 +7025,27 @@
       </c>
       <c r="D24" t="s">
         <v>53</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>625</v>
+      </c>
+      <c r="H24">
+        <v>625</v>
+      </c>
+      <c r="I24">
+        <v>360</v>
+      </c>
+      <c r="J24">
+        <v>625</v>
+      </c>
+      <c r="K24">
+        <v>360</v>
       </c>
     </row>
   </sheetData>
@@ -6781,7 +7058,7 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D23"/>
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7125,15 +7402,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E219A9FF51DF7F40A2797E30E842AF22" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="14cd91dac819157c91b1d14f281b7de0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ef0ff67e-9087-4832-8b9d-0b53066cc775" xmlns:ns3="89e87ded-6359-4f8b-890f-4b93e2ce9d62" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="59d8e09582726c96a64897b0d147333a" ns2:_="" ns3:_="">
     <xsd:import namespace="ef0ff67e-9087-4832-8b9d-0b53066cc775"/>
@@ -7388,6 +7656,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BB460EA8-CB9A-4F7E-BFBB-767BCD8C8437}">
   <ds:schemaRefs>
@@ -7400,14 +7677,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F20D3916-E5A9-425A-83B2-F01DF16983CD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2391CDA1-3996-43CF-9002-B27C97B7374C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7424,4 +7693,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F20D3916-E5A9-425A-83B2-F01DF16983CD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/generated_model_inputs.xlsx
+++ b/generated_model_inputs.xlsx
@@ -2753,7 +2753,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Osborn</t>
+          <t>Osborne</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>OsbornStoreGP_STOREGP</t>
+          <t>OsborneStoreGP_STOREGP</t>
         </is>
       </c>
       <c r="O31" t="n">
@@ -4488,7 +4488,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Osborn</t>
+          <t>Osborne</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -4518,7 +4518,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>Osborn</t>
+          <t>Osborne</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -4531,12 +4531,12 @@
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>OsbornStoreGP_STOREGP</t>
+          <t>OsborneStoreGP_STOREGP</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>OsbornDeliverTRUCKGP</t>
+          <t>OsborneDeliverTRUCKGP</t>
         </is>
       </c>
       <c r="O56" t="n">
@@ -4544,7 +4544,7 @@
       </c>
       <c r="P56" t="inlineStr">
         <is>
-          <t>OsbornStoreGP</t>
+          <t>OsborneStoreGP</t>
         </is>
       </c>
     </row>
@@ -4559,7 +4559,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Osborn</t>
+          <t>Osborne</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -4587,7 +4587,7 @@
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>OsbornDeliverTRUCKGP</t>
+          <t>OsborneDeliverTRUCKGP</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="P57" t="inlineStr">
         <is>
-          <t>OsbornDeliverGP</t>
+          <t>OsborneDeliverGP</t>
         </is>
       </c>
     </row>
@@ -5468,7 +5468,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>Osborn</t>
+          <t>Osborne</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -5597,7 +5597,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Osborn</t>
+          <t>Osborne</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -5627,7 +5627,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>Osborn</t>
+          <t>Osborne</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -5726,7 +5726,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Osborn</t>
+          <t>Osborne</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -7560,7 +7560,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>46008.46452012691</v>
+        <v>46008.49098160698</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -7575,7 +7575,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>46008.46452091695</v>
+        <v>46008.49098237958</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -7590,7 +7590,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>46008.46452137881</v>
+        <v>46008.49098275614</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -7605,7 +7605,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>46008.46452192851</v>
+        <v>46008.49098317124</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -7620,7 +7620,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>46008.4645224499</v>
+        <v>46008.49098366227</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -7635,7 +7635,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>46008.46452281678</v>
+        <v>46008.49098612386</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -7650,7 +7650,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>46008.46452323741</v>
+        <v>46008.49098682654</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -7665,7 +7665,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>46008.46452363311</v>
+        <v>46008.49098774711</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -7680,7 +7680,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>46008.46452407529</v>
+        <v>46008.49098880601</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -7695,7 +7695,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>46008.46452456698</v>
+        <v>46008.49098952707</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -7710,7 +7710,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>46008.46452500259</v>
+        <v>46008.49099022175</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -7725,7 +7725,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>46008.46452548576</v>
+        <v>46008.49099089872</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -7740,7 +7740,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>46008.46452588137</v>
+        <v>46008.49099156639</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -7755,7 +7755,7 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>46008.46452633456</v>
+        <v>46008.49099218734</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -7770,7 +7770,7 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>46008.46452635768</v>
+        <v>46008.49099225057</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -7785,7 +7785,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>46008.46452642039</v>
+        <v>46008.49099235353</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -7800,7 +7800,7 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>46008.46452654375</v>
+        <v>46008.4909926614</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -7815,7 +7815,7 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>46008.4645265943</v>
+        <v>46008.49099273398</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -7830,7 +7830,7 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>46008.46452667536</v>
+        <v>46008.4909928557</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -7845,7 +7845,7 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>46008.46452672234</v>
+        <v>46008.4909931934</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -7860,7 +7860,7 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>46008.46452675713</v>
+        <v>46008.49099323256</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -7875,7 +7875,7 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>46008.46452687566</v>
+        <v>46008.4909935071</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -7890,7 +7890,7 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>46008.46452690387</v>
+        <v>46008.49099357751</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -7905,7 +7905,7 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>46008.46453419475</v>
+        <v>46008.49100163354</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -7920,7 +7920,7 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>46008.46453999948</v>
+        <v>46008.49100648117</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -7935,7 +7935,7 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>46008.46454555397</v>
+        <v>46008.4910117139</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -7950,7 +7950,7 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>46008.464550753</v>
+        <v>46008.49101727746</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -7965,7 +7965,7 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>46008.46455864525</v>
+        <v>46008.49102222764</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -7980,7 +7980,7 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>46008.46456729199</v>
+        <v>46008.49102922533</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -7995,7 +7995,7 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>46008.46457288037</v>
+        <v>46008.49103407582</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -8010,7 +8010,7 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>46008.46457719961</v>
+        <v>46008.4910380877</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -8025,7 +8025,7 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>46008.46458140649</v>
+        <v>46008.49104286927</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -9620,7 +9620,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Osborn</t>
+          <t>Osborne</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -9662,7 +9662,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Osborn</t>
+          <t>Osborne</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -10506,7 +10506,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Osborn</t>
+          <t>Osborne</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -10529,7 +10529,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Osborn</t>
+          <t>Osborne</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -11644,7 +11644,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Osborn</t>
+          <t>Osborne</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -12667,4 +12667,291 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E219A9FF51DF7F40A2797E30E842AF22" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="14cd91dac819157c91b1d14f281b7de0">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ef0ff67e-9087-4832-8b9d-0b53066cc775" xmlns:ns3="89e87ded-6359-4f8b-890f-4b93e2ce9d62" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="59d8e09582726c96a64897b0d147333a" ns2:_="" ns3:_="">
+    <xsd:import namespace="ef0ff67e-9087-4832-8b9d-0b53066cc775"/>
+    <xsd:import namespace="89e87ded-6359-4f8b-890f-4b93e2ce9d62"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="ef0ff67e-9087-4832-8b9d-0b53066cc775" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="10" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="11" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="12" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="13" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="14" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="15" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="18" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="19" nillable="true" ma:displayName="Length (seconds)" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="20" nillable="true" ma:displayName="Location" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="22" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="94ff3b9c-19f0-420d-a4cb-c70adf2f2c4c" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="24" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="25" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="89e87ded-6359-4f8b-890f-4b93e2ce9d62" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="16" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="17" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="TaxCatchAll" ma:index="23" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{f1b8a3ce-642d-4a39-a5da-f65dc8781456}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="89e87ded-6359-4f8b-890f-4b93e2ce9d62">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ef0ff67e-9087-4832-8b9d-0b53066cc775">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="89e87ded-6359-4f8b-890f-4b93e2ce9d62" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8C19F862-7251-46AA-8F06-47DE7C40C80C}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6E430391-EC8A-4CCA-8D04-E0470217D5A7}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{15C06DAF-C42A-45C6-9C61-984803B37D60}"/>
 </file>
--- a/generated_model_inputs.xlsx
+++ b/generated_model_inputs.xlsx
@@ -7560,7 +7560,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>46008.49098160698</v>
+        <v>46008.50060285225</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -7575,7 +7575,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>46008.49098237958</v>
+        <v>46008.50060357437</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -7590,7 +7590,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>46008.49098275614</v>
+        <v>46008.5006038809</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -7605,7 +7605,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>46008.49098317124</v>
+        <v>46008.50060424916</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -7620,7 +7620,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>46008.49098366227</v>
+        <v>46008.50060460019</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -7635,7 +7635,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>46008.49098612386</v>
+        <v>46008.50060492102</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -7650,7 +7650,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>46008.49098682654</v>
+        <v>46008.50060518074</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -7665,7 +7665,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>46008.49098774711</v>
+        <v>46008.50060554549</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -7680,7 +7680,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>46008.49098880601</v>
+        <v>46008.5006058962</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -7695,7 +7695,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>46008.49098952707</v>
+        <v>46008.50060618638</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -7710,7 +7710,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>46008.49099022175</v>
+        <v>46008.50060648269</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -7725,7 +7725,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>46008.49099089872</v>
+        <v>46008.50060678002</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -7740,7 +7740,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>46008.49099156639</v>
+        <v>46008.50060706501</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -7755,7 +7755,7 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>46008.49099218734</v>
+        <v>46008.50060739729</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -7770,7 +7770,7 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>46008.49099225057</v>
+        <v>46008.50060741292</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -7785,7 +7785,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>46008.49099235353</v>
+        <v>46008.50060744611</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -7800,7 +7800,7 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>46008.4909926614</v>
+        <v>46008.50060751093</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -7815,7 +7815,7 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>46008.49099273398</v>
+        <v>46008.50060753969</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -7830,7 +7830,7 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>46008.4909928557</v>
+        <v>46008.50060760233</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -7845,7 +7845,7 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>46008.4909931934</v>
+        <v>46008.50060766236</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -7860,7 +7860,7 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>46008.49099323256</v>
+        <v>46008.50060770309</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -7875,7 +7875,7 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>46008.4909935071</v>
+        <v>46008.50060781257</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -7890,7 +7890,7 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>46008.49099357751</v>
+        <v>46008.50060784438</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -7905,7 +7905,7 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>46008.49100163354</v>
+        <v>46008.50061345316</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -7920,7 +7920,7 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>46008.49100648117</v>
+        <v>46008.50061783077</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -7935,7 +7935,7 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>46008.4910117139</v>
+        <v>46008.50062267205</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -7950,7 +7950,7 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>46008.49101727746</v>
+        <v>46008.50062741721</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -7965,7 +7965,7 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>46008.49102222764</v>
+        <v>46008.50063151732</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -7980,7 +7980,7 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>46008.49102922533</v>
+        <v>46008.50063740841</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -7995,7 +7995,7 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>46008.49103407582</v>
+        <v>46008.50064160447</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -8010,7 +8010,7 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>46008.4910380877</v>
+        <v>46008.50064491263</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -8025,7 +8025,7 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>46008.49104286927</v>
+        <v>46008.5006483852</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -12130,17 +12130,17 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>FA_STORE</t>
+          <t>FA_EXPSILO_STORE</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>FA_STORE</t>
+          <t>FA_EXPSILO_STORE</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>FA_STORE</t>
+          <t>FA_EXPSILO_STORE</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -12199,7 +12199,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>FA_STORE</t>
+          <t>FA_EXPSILO_STORE</t>
         </is>
       </c>
     </row>
@@ -12945,13 +12945,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8C19F862-7251-46AA-8F06-47DE7C40C80C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E642C047-CB02-45AD-9928-DC91FF5E36CA}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6E430391-EC8A-4CCA-8D04-E0470217D5A7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F749972-50F4-4196-BA95-60F261567EC0}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{15C06DAF-C42A-45C6-9C61-984803B37D60}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{54586BE6-D6E7-45CA-80F1-8EA9838C0479}"/>
 </file>
--- a/generated_model_inputs.xlsx
+++ b/generated_model_inputs.xlsx
@@ -7302,7 +7302,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7455,11 +7455,8 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Port Kembla</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>800</v>
+          <t>Osborne</t>
+        </is>
       </c>
     </row>
     <row r="11">
@@ -7470,32 +7467,32 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Townsville</t>
+          <t>Port Kembla</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>433</v>
+        <v>800</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Import_CL</t>
+          <t>Gladstone</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Port Kembla</t>
+          <t>Townsville</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1000</v>
+        <v>433</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Import_GBFS</t>
+          <t>Import_CL</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -7510,15 +7507,42 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>Import_GBFS</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Port Kembla</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
           <t>Melbourne</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Osborne</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Melbourne</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
         <is>
           <t>Port Kembla</t>
         </is>
       </c>
-      <c r="C14" t="n">
+      <c r="C16" t="n">
         <v>637</v>
       </c>
     </row>
@@ -7560,7 +7584,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>46008.50060285225</v>
+        <v>46008.51294430737</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -7575,7 +7599,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>46008.50060357437</v>
+        <v>46008.51294503034</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -7590,7 +7614,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>46008.5006038809</v>
+        <v>46008.51294545223</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -7605,7 +7629,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>46008.50060424916</v>
+        <v>46008.51294585028</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -7620,7 +7644,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>46008.50060460019</v>
+        <v>46008.51294617832</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -7635,7 +7659,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>46008.50060492102</v>
+        <v>46008.51294655301</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -7650,7 +7674,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>46008.50060518074</v>
+        <v>46008.51294691406</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -7665,7 +7689,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>46008.50060554549</v>
+        <v>46008.51294723705</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -7680,7 +7704,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>46008.5006058962</v>
+        <v>46008.51294757782</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -7695,7 +7719,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>46008.50060618638</v>
+        <v>46008.51294792618</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -7710,7 +7734,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>46008.50060648269</v>
+        <v>46008.51294834919</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -7725,7 +7749,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>46008.50060678002</v>
+        <v>46008.51294865672</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -7740,7 +7764,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>46008.50060706501</v>
+        <v>46008.51294895179</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -7755,7 +7779,7 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>46008.50060739729</v>
+        <v>46008.5129492128</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -7770,7 +7794,7 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>46008.50060741292</v>
+        <v>46008.51294922537</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -7785,7 +7809,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>46008.50060744611</v>
+        <v>46008.51294925774</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -7800,7 +7824,7 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>46008.50060751093</v>
+        <v>46008.51294932403</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -7815,7 +7839,7 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>46008.50060753969</v>
+        <v>46008.5129493508</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -7830,7 +7854,7 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>46008.50060760233</v>
+        <v>46008.51294940313</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -7845,7 +7869,7 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>46008.50060766236</v>
+        <v>46008.51294943095</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -7860,7 +7884,7 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>46008.50060770309</v>
+        <v>46008.51294945084</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -7875,7 +7899,7 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>46008.50060781257</v>
+        <v>46008.51294951384</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -7890,7 +7914,7 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>46008.50060784438</v>
+        <v>46008.51294953028</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -7905,7 +7929,7 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>46008.50061345316</v>
+        <v>46008.51295529775</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -7920,7 +7944,7 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>46008.50061783077</v>
+        <v>46008.512959819</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -7935,7 +7959,7 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>46008.50062267205</v>
+        <v>46008.51296422056</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -7950,7 +7974,7 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>46008.50062741721</v>
+        <v>46008.51296923606</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -7965,7 +7989,7 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>46008.50063151732</v>
+        <v>46008.51297341763</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -7980,7 +8004,7 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>46008.50063740841</v>
+        <v>46008.512979584</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -7995,7 +8019,7 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>46008.50064160447</v>
+        <v>46008.51298382982</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -8010,7 +8034,7 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>46008.50064491263</v>
+        <v>46008.51298746749</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -8025,7 +8049,7 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>46008.5006483852</v>
+        <v>46008.51299164436</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -8034,7 +8058,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>rows_added=0</t>
+          <t>rows_added=2</t>
         </is>
       </c>
     </row>
@@ -11709,7 +11733,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P21"/>
+  <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11798,6 +11822,11 @@
           <t>Route 15</t>
         </is>
       </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Route 16</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -11847,35 +11876,40 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
+          <t>North</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
           <t>South</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>South</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>South</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>Import_CL</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>Import_CL</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>Import_GBFS</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>Import_GBFS</t>
         </is>
@@ -11912,24 +11946,27 @@
         <v>1.8</v>
       </c>
       <c r="J3" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="K3" t="n">
         <v>2.1</v>
       </c>
-      <c r="K3" t="n">
+      <c r="L3" t="n">
         <v>2.2</v>
       </c>
-      <c r="L3" t="n">
+      <c r="M3" t="n">
         <v>2.3</v>
       </c>
-      <c r="M3" t="n">
+      <c r="N3" t="n">
         <v>3.1</v>
       </c>
-      <c r="N3" t="n">
+      <c r="O3" t="n">
         <v>3.2</v>
       </c>
-      <c r="O3" t="n">
+      <c r="P3" t="n">
         <v>4.1</v>
       </c>
-      <c r="P3" t="n">
+      <c r="Q3" t="n">
         <v>4.2</v>
       </c>
     </row>
@@ -11981,35 +12018,40 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
+          <t>Gladstone</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
           <t>Devonport</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>Devonport</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>Devonport</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>Import_CL</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>Import_CL</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>Import_GBFS</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>Import_GBFS</t>
         </is>
@@ -12063,7 +12105,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>GP</t>
+          <t>FA</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -12078,20 +12120,25 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
+          <t>GP</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
           <t>CL</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="O5" t="inlineStr">
         <is>
           <t>CL</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="P5" t="inlineStr">
         <is>
           <t>GBFS</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>GBFS</t>
         </is>
@@ -12145,35 +12192,40 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
+          <t>FA_EXPSILO_STORE</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
           <t>GP_STORE</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>GP_STORE</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>GP_STORE</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>CL_STORE</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>CL_STORE</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="P6" t="inlineStr">
         <is>
           <t>GBFS_STORE</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>GBFS_STORE</t>
         </is>
@@ -12256,30 +12308,35 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
+          <t>Melbourne</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
           <t>Newcastle</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>Osborne</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="N9" t="inlineStr">
         <is>
           <t>Bulwer Island</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="O9" t="inlineStr">
         <is>
           <t>Port Kembla</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
+      <c r="P9" t="inlineStr">
         <is>
           <t>Bulwer Island</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
+      <c r="Q9" t="inlineStr">
         <is>
           <t>Port Kembla</t>
         </is>
@@ -12333,7 +12390,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>GP</t>
+          <t>FA</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -12348,20 +12405,25 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
+          <t>GP</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
           <t>CL</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="O10" t="inlineStr">
         <is>
           <t>CL</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
+      <c r="P10" t="inlineStr">
         <is>
           <t>GBFS</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
+      <c r="Q10" t="inlineStr">
         <is>
           <t>GBFS</t>
         </is>
@@ -12415,35 +12477,40 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
+          <t>FA_STORE</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
           <t>GP_STORE</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>GP_STORE</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>GP_STORE</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="N11" t="inlineStr">
         <is>
           <t>CL_STORE_I</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
+      <c r="O11" t="inlineStr">
         <is>
           <t>CL_STORE_I</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr">
+      <c r="P11" t="inlineStr">
         <is>
           <t>GBFS_STORE</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr">
+      <c r="Q11" t="inlineStr">
         <is>
           <t>GBFS_STORE</t>
         </is>
@@ -12484,7 +12551,7 @@
           <t>Port Kembla</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr">
+      <c r="J14" t="inlineStr">
         <is>
           <t>Devonport</t>
         </is>
@@ -12501,7 +12568,7 @@
           <t>SG</t>
         </is>
       </c>
-      <c r="I15" t="inlineStr">
+      <c r="J15" t="inlineStr">
         <is>
           <t>GP</t>
         </is>
@@ -12525,7 +12592,7 @@
           <t>SG_STORE</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr">
+      <c r="J17" t="inlineStr">
         <is>
           <t>GP_STORE</t>
         </is>
@@ -12544,6 +12611,11 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
+          <t>Osborne</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
           <t>Melbourne</t>
         </is>
       </c>
@@ -12561,6 +12633,11 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
+          <t>FA</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
           <t>GP</t>
         </is>
       </c>
@@ -12578,6 +12655,11 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
+          <t>FA_STORE</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
           <t>GP_STORE</t>
         </is>
       </c>
@@ -12630,35 +12712,40 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
+          <t>Gladstone</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
           <t>Devonport</t>
         </is>
       </c>
-      <c r="K21" t="inlineStr">
+      <c r="L21" t="inlineStr">
         <is>
           <t>Devonport</t>
         </is>
       </c>
-      <c r="L21" t="inlineStr">
+      <c r="M21" t="inlineStr">
         <is>
           <t>Devonport</t>
         </is>
       </c>
-      <c r="M21" t="inlineStr">
+      <c r="N21" t="inlineStr">
         <is>
           <t>Import_CL</t>
         </is>
       </c>
-      <c r="N21" t="inlineStr">
+      <c r="O21" t="inlineStr">
         <is>
           <t>Import_CL</t>
         </is>
       </c>
-      <c r="O21" t="inlineStr">
+      <c r="P21" t="inlineStr">
         <is>
           <t>Import_GBFS</t>
         </is>
       </c>
-      <c r="P21" t="inlineStr">
+      <c r="Q21" t="inlineStr">
         <is>
           <t>Import_GBFS</t>
         </is>
@@ -12945,13 +13032,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E642C047-CB02-45AD-9928-DC91FF5E36CA}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC0B8792-79C7-4069-A68C-3EB12C12B306}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F749972-50F4-4196-BA95-60F261567EC0}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12BA4B29-5B68-43F5-BA1C-0B365772351B}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{54586BE6-D6E7-45CA-80F1-8EA9838C0479}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{514B5C83-B218-405F-BC69-A0EF1B9D6402}"/>
 </file>
--- a/generated_model_inputs.xlsx
+++ b/generated_model_inputs.xlsx
@@ -7458,6 +7458,9 @@
           <t>Osborne</t>
         </is>
       </c>
+      <c r="C10" t="n">
+        <v>1700</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -7529,6 +7532,9 @@
         <is>
           <t>Osborne</t>
         </is>
+      </c>
+      <c r="C15" t="n">
+        <v>520</v>
       </c>
     </row>
     <row r="16">
@@ -7584,7 +7590,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>46008.51294430737</v>
+        <v>46008.52415182532</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -7599,7 +7605,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>46008.51294503034</v>
+        <v>46008.52415256699</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -7614,7 +7620,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>46008.51294545223</v>
+        <v>46008.5241530625</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -7629,7 +7635,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>46008.51294585028</v>
+        <v>46008.52415356235</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -7644,7 +7650,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>46008.51294617832</v>
+        <v>46008.52415401034</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -7659,7 +7665,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>46008.51294655301</v>
+        <v>46008.52415440742</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -7674,7 +7680,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>46008.51294691406</v>
+        <v>46008.52415476918</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -7689,7 +7695,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>46008.51294723705</v>
+        <v>46008.52415508778</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -7704,7 +7710,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>46008.51294757782</v>
+        <v>46008.52415547203</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -7719,7 +7725,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>46008.51294792618</v>
+        <v>46008.52415592372</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -7734,7 +7740,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>46008.51294834919</v>
+        <v>46008.5241563792</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -7749,7 +7755,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>46008.51294865672</v>
+        <v>46008.52415678233</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -7764,7 +7770,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>46008.51294895179</v>
+        <v>46008.52415718353</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -7773,13 +7779,13 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>SHIP_DISTANCES -&gt; SHIP_DISTANCES, rows=13</t>
+          <t>SHIP_DISTANCES -&gt; SHIP_DISTANCES, rows=15</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>46008.5129492128</v>
+        <v>46008.52415752669</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -7794,7 +7800,7 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>46008.51294922537</v>
+        <v>46008.5241575399</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -7809,7 +7815,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>46008.51294925774</v>
+        <v>46008.52415757426</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -7824,7 +7830,7 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>46008.51294932403</v>
+        <v>46008.52415764378</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -7839,7 +7845,7 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>46008.5129493508</v>
+        <v>46008.52415767443</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -7854,7 +7860,7 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>46008.51294940313</v>
+        <v>46008.52415772588</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -7869,7 +7875,7 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>46008.51294943095</v>
+        <v>46008.52415775104</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -7884,7 +7890,7 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>46008.51294945084</v>
+        <v>46008.52415777017</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -7899,7 +7905,7 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>46008.51294951384</v>
+        <v>46008.52415787092</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -7914,7 +7920,7 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>46008.51294953028</v>
+        <v>46008.52415789769</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -7923,13 +7929,13 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>SHIP_DISTANCES rows=13 -&gt; generated_model_inputs.xlsx</t>
+          <t>SHIP_DISTANCES rows=15 -&gt; generated_model_inputs.xlsx</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>46008.51295529775</v>
+        <v>46008.5241654115</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -7944,7 +7950,7 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>46008.512959819</v>
+        <v>46008.52417051767</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -7959,7 +7965,7 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>46008.51296422056</v>
+        <v>46008.52417583207</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -7974,7 +7980,7 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>46008.51296923606</v>
+        <v>46008.52418393343</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -7989,7 +7995,7 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>46008.51297341763</v>
+        <v>46008.52419150426</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -8004,7 +8010,7 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>46008.512979584</v>
+        <v>46008.52419801017</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -8019,7 +8025,7 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>46008.51298382982</v>
+        <v>46008.52420246631</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -8034,7 +8040,7 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>46008.51298746749</v>
+        <v>46008.52420659146</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -8049,7 +8055,7 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>46008.51299164436</v>
+        <v>46008.52421125816</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -8058,7 +8064,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>rows_added=2</t>
+          <t>rows_added=0</t>
         </is>
       </c>
     </row>
@@ -13032,13 +13038,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC0B8792-79C7-4069-A68C-3EB12C12B306}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36FDDEED-686D-4294-9C74-E848AE5CA274}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12BA4B29-5B68-43F5-BA1C-0B365772351B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{977F8FCD-7B6F-4345-AC87-091EF38CC692}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{514B5C83-B218-405F-BC69-A0EF1B9D6402}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{099EDB18-BC19-497E-9283-1466EDB9C8A8}"/>
 </file>
--- a/generated_model_inputs.xlsx
+++ b/generated_model_inputs.xlsx
@@ -7302,7 +7302,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7530,11 +7530,8 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Osborne</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>520</v>
+          <t>Newcastle</t>
+        </is>
       </c>
     </row>
     <row r="16">
@@ -7545,11 +7542,38 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
+          <t>Osborne</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Melbourne</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
           <t>Port Kembla</t>
         </is>
       </c>
-      <c r="C16" t="n">
+      <c r="C17" t="n">
         <v>637</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Osborne</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Port Kembla</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -7590,7 +7614,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>46008.52415182532</v>
+        <v>46008.54090746686</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -7605,7 +7629,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>46008.52415256699</v>
+        <v>46008.54090803081</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -7620,7 +7644,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>46008.5241530625</v>
+        <v>46008.5409083354</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -7635,7 +7659,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>46008.52415356235</v>
+        <v>46008.54090869308</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -7650,7 +7674,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>46008.52415401034</v>
+        <v>46008.54090911882</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -7665,7 +7689,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>46008.52415440742</v>
+        <v>46008.5409094857</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -7680,7 +7704,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>46008.52415476918</v>
+        <v>46008.54090981436</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -7695,7 +7719,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>46008.52415508778</v>
+        <v>46008.54091017329</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -7710,7 +7734,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>46008.52415547203</v>
+        <v>46008.54091050423</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -7725,7 +7749,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>46008.52415592372</v>
+        <v>46008.54091080247</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -7740,7 +7764,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>46008.5241563792</v>
+        <v>46008.54091119595</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -7755,7 +7779,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>46008.52415678233</v>
+        <v>46008.5409115297</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -7770,7 +7794,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>46008.52415718353</v>
+        <v>46008.54091182409</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -7785,7 +7809,7 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>46008.52415752669</v>
+        <v>46008.54091210054</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -7800,7 +7824,7 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>46008.5241575399</v>
+        <v>46008.54091211441</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -7815,7 +7839,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>46008.52415757426</v>
+        <v>46008.54091214667</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -7830,7 +7854,7 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>46008.52415764378</v>
+        <v>46008.54091221809</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -7845,7 +7869,7 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>46008.52415767443</v>
+        <v>46008.540912247</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -7860,7 +7884,7 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>46008.52415772588</v>
+        <v>46008.54091231262</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -7875,7 +7899,7 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>46008.52415775104</v>
+        <v>46008.54091235284</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -7890,7 +7914,7 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>46008.52415777017</v>
+        <v>46008.5409123953</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -7905,7 +7929,7 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>46008.52415787092</v>
+        <v>46008.54091249037</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -7920,7 +7944,7 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>46008.52415789769</v>
+        <v>46008.54091250778</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -7935,7 +7959,7 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>46008.5241654115</v>
+        <v>46008.54091863518</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -7950,7 +7974,7 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>46008.52417051767</v>
+        <v>46008.54092303823</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -7965,7 +7989,7 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>46008.52417583207</v>
+        <v>46008.54092758252</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -7980,7 +8004,7 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>46008.52418393343</v>
+        <v>46008.54093237838</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -7995,7 +8019,7 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>46008.52419150426</v>
+        <v>46008.5409366332</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -8010,7 +8034,7 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>46008.52419801017</v>
+        <v>46008.5409426921</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -8025,7 +8049,7 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>46008.52420246631</v>
+        <v>46008.54094677832</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -8040,7 +8064,7 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>46008.52420659146</v>
+        <v>46008.54095048382</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -8055,7 +8079,7 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>46008.52421125816</v>
+        <v>46008.54095481276</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -8064,7 +8088,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>rows_added=0</t>
+          <t>rows_added=2</t>
         </is>
       </c>
     </row>
@@ -11739,7 +11763,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q21"/>
+  <dimension ref="A1:R21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11833,6 +11857,11 @@
           <t>Route 16</t>
         </is>
       </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 17</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -11887,35 +11916,40 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
+          <t>North</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
           <t>South</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>South</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>South</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>Import_CL</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>Import_CL</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>Import_GBFS</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="R2" t="inlineStr">
         <is>
           <t>Import_GBFS</t>
         </is>
@@ -11955,24 +11989,27 @@
         <v>1.9</v>
       </c>
       <c r="K3" t="n">
+        <v>2</v>
+      </c>
+      <c r="L3" t="n">
         <v>2.1</v>
       </c>
-      <c r="L3" t="n">
+      <c r="M3" t="n">
         <v>2.2</v>
       </c>
-      <c r="M3" t="n">
+      <c r="N3" t="n">
         <v>2.3</v>
       </c>
-      <c r="N3" t="n">
+      <c r="O3" t="n">
         <v>3.1</v>
       </c>
-      <c r="O3" t="n">
+      <c r="P3" t="n">
         <v>3.2</v>
       </c>
-      <c r="P3" t="n">
+      <c r="Q3" t="n">
         <v>4.1</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="R3" t="n">
         <v>4.2</v>
       </c>
     </row>
@@ -12029,35 +12066,40 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
+          <t>Gladstone</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
           <t>Devonport</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>Devonport</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>Devonport</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>Import_CL</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>Import_CL</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>Import_GBFS</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="R4" t="inlineStr">
         <is>
           <t>Import_GBFS</t>
         </is>
@@ -12096,29 +12138,29 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
+          <t>GP</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
           <t>FA</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>FA</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>FA</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>FA</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>GP</t>
-        </is>
-      </c>
       <c r="L5" t="inlineStr">
         <is>
           <t>GP</t>
@@ -12131,20 +12173,25 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
+          <t>GP</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
           <t>CL</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="P5" t="inlineStr">
         <is>
           <t>CL</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>GBFS</t>
         </is>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="R5" t="inlineStr">
         <is>
           <t>GBFS</t>
         </is>
@@ -12183,55 +12230,60 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
+          <t>GP_STORE</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
           <t>FA_EXPSILO_STORE</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>FA_EXPSILO_STORE</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>FA_EXPSILO_STORE</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>FA_EXPSILO_STORE</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>GP_STORE</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>GP_STORE</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>GP_STORE</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>CL_STORE</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="P6" t="inlineStr">
         <is>
           <t>CL_STORE</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>GBFS_STORE</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="R6" t="inlineStr">
         <is>
           <t>GBFS_STORE</t>
         </is>
@@ -12248,6 +12300,16 @@
           <t>FA</t>
         </is>
       </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>FA</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>FA</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -12260,6 +12322,16 @@
           <t>FA_EXPSILO_STORE</t>
         </is>
       </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>FA_EXPSILO_STORE</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>FA_EXPSILO_STORE</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -12299,50 +12371,55 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
+          <t>Port Kembla</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
           <t>Melbourne</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>Melbourne</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>Melbourne</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>Melbourne</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>Newcastle</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="N9" t="inlineStr">
         <is>
           <t>Osborne</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="O9" t="inlineStr">
         <is>
           <t>Bulwer Island</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
+      <c r="P9" t="inlineStr">
         <is>
           <t>Port Kembla</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
+      <c r="Q9" t="inlineStr">
         <is>
           <t>Bulwer Island</t>
         </is>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="R9" t="inlineStr">
         <is>
           <t>Port Kembla</t>
         </is>
@@ -12381,29 +12458,29 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
+          <t>GP</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
           <t>FA</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>FA</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>FA</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>FA</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>GP</t>
-        </is>
-      </c>
       <c r="L10" t="inlineStr">
         <is>
           <t>GP</t>
@@ -12416,20 +12493,25 @@
       </c>
       <c r="N10" t="inlineStr">
         <is>
+          <t>GP</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
           <t>CL</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
+      <c r="P10" t="inlineStr">
         <is>
           <t>CL</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
+      <c r="Q10" t="inlineStr">
         <is>
           <t>GBFS</t>
         </is>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="R10" t="inlineStr">
         <is>
           <t>GBFS</t>
         </is>
@@ -12468,55 +12550,60 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
+          <t>GP_STORE</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
           <t>FA_STORE</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>FA_STORE</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t>FA_STORE</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>FA_STORE</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>GP_STORE</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>GP_STORE</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="N11" t="inlineStr">
         <is>
           <t>GP_STORE</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
+      <c r="O11" t="inlineStr">
         <is>
           <t>CL_STORE_I</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr">
+      <c r="P11" t="inlineStr">
         <is>
           <t>CL_STORE_I</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr">
+      <c r="Q11" t="inlineStr">
         <is>
           <t>GBFS_STORE</t>
         </is>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="R11" t="inlineStr">
         <is>
           <t>GBFS_STORE</t>
         </is>
@@ -12557,7 +12644,7 @@
           <t>Port Kembla</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>Devonport</t>
         </is>
@@ -12574,7 +12661,7 @@
           <t>SG</t>
         </is>
       </c>
-      <c r="J15" t="inlineStr">
+      <c r="K15" t="inlineStr">
         <is>
           <t>GP</t>
         </is>
@@ -12598,7 +12685,7 @@
           <t>SG_STORE</t>
         </is>
       </c>
-      <c r="J17" t="inlineStr">
+      <c r="K17" t="inlineStr">
         <is>
           <t>GP_STORE</t>
         </is>
@@ -12615,12 +12702,22 @@
           <t>Melbourne</t>
         </is>
       </c>
-      <c r="I18" t="inlineStr">
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Melbourne</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
         <is>
           <t>Osborne</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
+        <is>
+          <t>Osborne</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
         <is>
           <t>Melbourne</t>
         </is>
@@ -12637,12 +12734,22 @@
           <t>SG</t>
         </is>
       </c>
-      <c r="I19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>FA</t>
         </is>
       </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>FA</t>
+        </is>
+      </c>
       <c r="J19" t="inlineStr">
+        <is>
+          <t>FA</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
         <is>
           <t>GP</t>
         </is>
@@ -12659,12 +12766,22 @@
           <t>SG_STORE</t>
         </is>
       </c>
-      <c r="I20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>FA_STORE</t>
         </is>
       </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>FA_STORE</t>
+        </is>
+      </c>
       <c r="J20" t="inlineStr">
+        <is>
+          <t>FA_STORE</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
         <is>
           <t>GP_STORE</t>
         </is>
@@ -12723,35 +12840,40 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
+          <t>Gladstone</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
           <t>Devonport</t>
         </is>
       </c>
-      <c r="L21" t="inlineStr">
+      <c r="M21" t="inlineStr">
         <is>
           <t>Devonport</t>
         </is>
       </c>
-      <c r="M21" t="inlineStr">
+      <c r="N21" t="inlineStr">
         <is>
           <t>Devonport</t>
         </is>
       </c>
-      <c r="N21" t="inlineStr">
+      <c r="O21" t="inlineStr">
         <is>
           <t>Import_CL</t>
         </is>
       </c>
-      <c r="O21" t="inlineStr">
+      <c r="P21" t="inlineStr">
         <is>
           <t>Import_CL</t>
         </is>
       </c>
-      <c r="P21" t="inlineStr">
+      <c r="Q21" t="inlineStr">
         <is>
           <t>Import_GBFS</t>
         </is>
       </c>
-      <c r="Q21" t="inlineStr">
+      <c r="R21" t="inlineStr">
         <is>
           <t>Import_GBFS</t>
         </is>
@@ -13038,13 +13160,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36FDDEED-686D-4294-9C74-E848AE5CA274}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{718205A9-DB11-4CF8-B715-4057B77D24D3}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{977F8FCD-7B6F-4345-AC87-091EF38CC692}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BCF75718-BF0E-4D2F-AE17-B5E8CFA299AE}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{099EDB18-BC19-497E-9283-1466EDB9C8A8}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D746BF97-37D9-4E9D-8BBF-FECE471706EA}"/>
 </file>
--- a/generated_model_inputs.xlsx
+++ b/generated_model_inputs.xlsx
@@ -7533,6 +7533,9 @@
           <t>Newcastle</t>
         </is>
       </c>
+      <c r="C15" t="n">
+        <v>640</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -7574,6 +7577,9 @@
         <is>
           <t>Port Kembla</t>
         </is>
+      </c>
+      <c r="C18" t="n">
+        <v>940</v>
       </c>
     </row>
   </sheetData>
@@ -7614,7 +7620,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>46008.54090746686</v>
+        <v>46008.57719836113</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -7629,7 +7635,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>46008.54090803081</v>
+        <v>46008.57719891849</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -7644,7 +7650,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>46008.5409083354</v>
+        <v>46008.57719921992</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -7659,7 +7665,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>46008.54090869308</v>
+        <v>46008.57719968219</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -7674,7 +7680,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>46008.54090911882</v>
+        <v>46008.5772001057</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -7689,7 +7695,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>46008.5409094857</v>
+        <v>46008.57720048308</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -7704,7 +7710,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>46008.54090981436</v>
+        <v>46008.57720089074</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -7719,7 +7725,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>46008.54091017329</v>
+        <v>46008.57720126391</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -7734,7 +7740,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>46008.54091050423</v>
+        <v>46008.57720169338</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -7749,7 +7755,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>46008.54091080247</v>
+        <v>46008.57720206138</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -7764,7 +7770,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>46008.54091119595</v>
+        <v>46008.57720249933</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -7779,7 +7785,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>46008.5409115297</v>
+        <v>46008.57720293185</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -7794,7 +7800,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>46008.54091182409</v>
+        <v>46008.57720331666</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -7803,13 +7809,13 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>SHIP_DISTANCES -&gt; SHIP_DISTANCES, rows=15</t>
+          <t>SHIP_DISTANCES -&gt; SHIP_DISTANCES, rows=17</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>46008.54091210054</v>
+        <v>46008.5772036566</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -7824,7 +7830,7 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>46008.54091211441</v>
+        <v>46008.57720367893</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -7839,7 +7845,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>46008.54091214667</v>
+        <v>46008.57720371916</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -7854,7 +7860,7 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>46008.54091221809</v>
+        <v>46008.57720380705</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -7869,7 +7875,7 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>46008.540912247</v>
+        <v>46008.57720383532</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -7884,7 +7890,7 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>46008.54091231262</v>
+        <v>46008.57720390208</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -7899,7 +7905,7 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>46008.54091235284</v>
+        <v>46008.57720393464</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -7914,7 +7920,7 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>46008.5409123953</v>
+        <v>46008.57720396133</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -7929,7 +7935,7 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>46008.54091249037</v>
+        <v>46008.57720403397</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -7944,7 +7950,7 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>46008.54091250778</v>
+        <v>46008.5772040587</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -7953,13 +7959,13 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>SHIP_DISTANCES rows=15 -&gt; generated_model_inputs.xlsx</t>
+          <t>SHIP_DISTANCES rows=17 -&gt; generated_model_inputs.xlsx</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>46008.54091863518</v>
+        <v>46008.57721222984</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -7974,7 +7980,7 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>46008.54092303823</v>
+        <v>46008.57721671354</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -7989,7 +7995,7 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>46008.54092758252</v>
+        <v>46008.57722121432</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -8004,7 +8010,7 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>46008.54093237838</v>
+        <v>46008.57722574206</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -8019,7 +8025,7 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>46008.5409366332</v>
+        <v>46008.57723025734</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -8034,7 +8040,7 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>46008.5409426921</v>
+        <v>46008.57723667464</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -8049,7 +8055,7 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>46008.54094677832</v>
+        <v>46008.57724128517</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -8064,7 +8070,7 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>46008.54095048382</v>
+        <v>46008.57724471603</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -8079,7 +8085,7 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>46008.54095481276</v>
+        <v>46008.57725133154</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -8088,7 +8094,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>rows_added=2</t>
+          <t>rows_added=0</t>
         </is>
       </c>
     </row>
@@ -11962,55 +11968,55 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="K3" t="n">
         <v>1.1</v>
       </c>
-      <c r="C3" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="E3" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="F3" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="G3" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="H3" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="K3" t="n">
-        <v>2</v>
-      </c>
       <c r="L3" t="n">
-        <v>2.1</v>
+        <v>2.01</v>
       </c>
       <c r="M3" t="n">
-        <v>2.2</v>
+        <v>2.02</v>
       </c>
       <c r="N3" t="n">
-        <v>2.3</v>
+        <v>2.03</v>
       </c>
       <c r="O3" t="n">
-        <v>3.1</v>
+        <v>3.01</v>
       </c>
       <c r="P3" t="n">
-        <v>3.2</v>
+        <v>3.02</v>
       </c>
       <c r="Q3" t="n">
-        <v>4.1</v>
+        <v>4.01</v>
       </c>
       <c r="R3" t="n">
-        <v>4.2</v>
+        <v>4.02</v>
       </c>
     </row>
     <row r="4">
@@ -13160,13 +13166,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{718205A9-DB11-4CF8-B715-4057B77D24D3}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C91442E9-45C2-4AC1-AE78-71087B57079F}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BCF75718-BF0E-4D2F-AE17-B5E8CFA299AE}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37FFAA63-C5BF-4964-B0EF-7F7304AB6BB7}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D746BF97-37D9-4E9D-8BBF-FECE471706EA}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1D359C84-22E5-421B-A1AB-6249A441D361}"/>
 </file>
--- a/generated_model_inputs.xlsx
+++ b/generated_model_inputs.xlsx
@@ -7620,7 +7620,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>46008.57719836113</v>
+        <v>46008.58989672302</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -7635,7 +7635,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>46008.57719891849</v>
+        <v>46008.58989725262</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -7650,7 +7650,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>46008.57719921992</v>
+        <v>46008.58989752091</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -7665,7 +7665,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>46008.57719968219</v>
+        <v>46008.58989784846</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -7680,7 +7680,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>46008.5772001057</v>
+        <v>46008.58989820884</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -7695,7 +7695,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>46008.57720048308</v>
+        <v>46008.58989863598</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -7710,7 +7710,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>46008.57720089074</v>
+        <v>46008.58989902343</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -7725,7 +7725,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>46008.57720126391</v>
+        <v>46008.58989931508</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -7740,7 +7740,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>46008.57720169338</v>
+        <v>46008.58989961757</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -7755,7 +7755,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>46008.57720206138</v>
+        <v>46008.58989989907</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -7770,7 +7770,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>46008.57720249933</v>
+        <v>46008.58990021119</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -7785,7 +7785,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>46008.57720293185</v>
+        <v>46008.5899005241</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -7800,7 +7800,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>46008.57720331666</v>
+        <v>46008.58990084221</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -7815,7 +7815,7 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>46008.5772036566</v>
+        <v>46008.5899011734</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -7830,7 +7830,7 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>46008.57720367893</v>
+        <v>46008.5899011885</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -7845,7 +7845,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>46008.57720371916</v>
+        <v>46008.58990122036</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -7860,7 +7860,7 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>46008.57720380705</v>
+        <v>46008.58990129185</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -7875,7 +7875,7 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>46008.57720383532</v>
+        <v>46008.58990131621</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -7890,7 +7890,7 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>46008.57720390208</v>
+        <v>46008.58990135855</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -7905,7 +7905,7 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>46008.57720393464</v>
+        <v>46008.58990138239</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -7920,7 +7920,7 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>46008.57720396133</v>
+        <v>46008.58990140093</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -7935,7 +7935,7 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>46008.57720403397</v>
+        <v>46008.58990147286</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -7950,7 +7950,7 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>46008.5772040587</v>
+        <v>46008.58990148849</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -7965,7 +7965,7 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>46008.57721222984</v>
+        <v>46008.58990677942</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -7980,7 +7980,7 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>46008.57721671354</v>
+        <v>46008.58991053475</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -7995,7 +7995,7 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>46008.57722121432</v>
+        <v>46008.58991472355</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -8010,7 +8010,7 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>46008.57722574206</v>
+        <v>46008.58991864014</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -8025,7 +8025,7 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>46008.57723025734</v>
+        <v>46008.58992245919</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -8040,7 +8040,7 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>46008.57723667464</v>
+        <v>46008.5899281735</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -8055,7 +8055,7 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>46008.57724128517</v>
+        <v>46008.58993196433</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -8070,7 +8070,7 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>46008.57724471603</v>
+        <v>46008.58993516661</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -8085,7 +8085,7 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>46008.57725133154</v>
+        <v>46008.58993844926</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -8256,7 +8256,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 36, 37, 56, 57, 58, 64, 87, 91, 92, 93, 99, 100, 106, 107, 113, 114, 119, 120, 121, 127, 128, 129, 140, 141, 142, 147, 148, 154, 155, 156, 162, 163, 169, 170, 176, 177, 182, 183, 184, 189, 190, 191, 196, 197, 198, 203, 204, 205, 206, 223, 224, 225, 226, 231, 232, 233, 238, 239, 240, 245, 246, 247, 248, 252, 253, 254, 260, 261, 262, 263, 268, 269, 275, 276, 277, 282, 283, 289, 295, 296, 301, 302, 337, 345, 351, 352, 359, 360, 361, 362, 363, 364</t>
+          <t>1-10,53,96,139,182,225,268,311</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -8295,7 +8295,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 36, 37, 56, 57, 58, 64, 87, 91, 92, 93, 99, 100, 106, 107, 113, 114, 119, 120, 121, 127, 128, 129, 140, 141, 142, 147, 148, 154, 155, 156, 162, 163, 169, 170, 176, 177, 182, 183, 184, 189, 190, 191, 196, 197, 198, 203, 204, 205, 206, 223, 224, 225, 226, 231, 232, 233, 238, 239, 240, 245, 246, 247, 248, 252, 253, 254, 260, 261, 262, 263, 268, 269, 275, 276, 277, 282, 283, 289, 295, 296, 301, 302, 337, 345, 351, 352, 359, 360, 361, 362, 363, 364</t>
+          <t>1-10,53,96,139,182,225,268,311</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -8334,7 +8334,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 66, 67, 91, 92, 93, 98, 99, 128, 129, 323, 324, 351, 352, 353, 356, 357, 358, 359, 360, 361, 362, 363, 364</t>
+          <t>12-21,64,107,150,193,236,279,322</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -8373,7 +8373,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 66, 67, 91, 92, 93, 98, 99, 128, 129, 323, 324, 351, 352, 353, 356, 357, 358, 359, 360, 361, 362, 363, 364</t>
+          <t>12-21,64,107,150,193,236,279,322</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -8410,13 +8410,8 @@
       <c r="F6" t="n">
         <v>10</v>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>9, 27, 28, 29, 30, 31, 37, 38, 98, 99, 100, 104, 105, 112, 113, 114, 115, 116, 117, 130, 131, 135, 136, 137, 138, 162, 163, 185, 186, 201, 202, 203, 227, 228, 229, 248, 249, 250, 251, 252, 253, 254, 255, 256, 257, 258, 259, 269, 286, 287, 288, 289, 297, 298, 330, 331, 332, 351, 352, 353, 357, 358, 359, 360, 361</t>
-        </is>
-      </c>
       <c r="H6" t="n">
-        <v>0.1646</v>
+        <v>0.15</v>
       </c>
       <c r="I6" t="n">
         <v>0.88</v>
@@ -8449,13 +8444,8 @@
       <c r="F7" t="n">
         <v>10</v>
       </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>9, 10, 11, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 36, 39, 40, 71, 72, 73, 74, 85, 86, 98, 99, 104, 105, 110, 111, 112, 113, 114, 115, 116, 117, 118, 128, 129, 130, 162, 163, 203, 204, 214, 215, 216, 227, 228, 229, 247, 248, 249, 269, 270, 279, 280, 286, 287, 288, 317, 330, 331, 332, 352, 353, 358, 359, 360</t>
-        </is>
-      </c>
       <c r="H7" t="n">
-        <v>0.1319</v>
+        <v>0.15</v>
       </c>
       <c r="I7" t="n">
         <v>0.88</v>
@@ -8483,13 +8473,8 @@
       <c r="F8" t="n">
         <v>10</v>
       </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>10,20,50,100</t>
-        </is>
-      </c>
       <c r="H8" t="n">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
       <c r="I8" t="n">
         <v>1</v>
@@ -8519,7 +8504,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>146, 147, 148, 149, 150, 151, 152, 153, 154, 155, 156, 157, 158, 159, 160, 161, 162, 163, 164, 165</t>
+          <t>250-274</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -8558,7 +8543,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>1, 2, 3, 4, 5, 6, 7, 8, 9, 14, 15, 16, 17, 18, 19, 20, 27, 28, 35, 36, 42, 43, 48, 49, 50, 56, 57, 70, 77, 78, 79, 91, 92, 93, 94, 95, 96, 97, 119, 120, 133, 134, 140, 141, 142, 161, 162, 163, 164, 182, 183, 189, 190, 196, 197, 203, 204, 210, 211, 216, 217, 218, 224, 225, 231, 232, 238, 239, 240, 252, 253, 256, 260, 261, 264, 273, 280, 281, 282, 287, 288, 294, 295, 301, 302, 322, 323, 336, 337, 350, 351, 360, 361, 362, 363, 364</t>
+          <t>1-5,53,96-100,148,191,234,277,320,363</t>
         </is>
       </c>
       <c r="H10" t="n">
@@ -8597,7 +8582,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>1, 2, 3, 4, 5, 6, 7, 8, 9, 14, 15, 16, 17, 18, 19, 20, 27, 28, 35, 36, 42, 43, 48, 49, 50, 56, 57, 70, 77, 78, 79, 91, 92, 93, 94, 95, 96, 97, 119, 120, 133, 134, 140, 141, 142, 161, 162, 163, 164, 182, 183, 189, 190, 196, 197, 203, 204, 210, 211, 216, 217, 218, 224, 225, 231, 232, 238, 239, 240, 252, 253, 256, 260, 261, 264, 273, 280, 281, 282, 287, 288, 294, 295, 301, 302, 322, 323, 336, 337, 350, 351, 360, 361, 362, 363, 364</t>
+          <t>1-5,53,96-100,148,191,234,277,320,363</t>
         </is>
       </c>
       <c r="H11" t="n">
@@ -8634,13 +8619,8 @@
       <c r="F12" t="n">
         <v>10</v>
       </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>2, 3, 4, 5, 6, 7, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 103, 104, 105, 106, 107, 108, 109, 110, 111, 112, 113, 114, 115, 116, 117, 118, 119, 120, 121, 245, 294, 295</t>
-        </is>
-      </c>
       <c r="H12" t="n">
-        <v>0.053</v>
+        <v>0.15</v>
       </c>
       <c r="I12" t="n">
         <v>0.88</v>
@@ -8673,13 +8653,8 @@
       <c r="F13" t="n">
         <v>10</v>
       </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 159, 167, 168, 197, 198, 203, 204, 224, 245, 246, 294, 295</t>
-        </is>
-      </c>
       <c r="H13" t="n">
-        <v>0.1101</v>
+        <v>0.15</v>
       </c>
       <c r="I13" t="n">
         <v>0.88</v>
@@ -8709,7 +8684,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>95, 96, 97, 98, 99, 100, 101, 102, 103, 104, 105, 106, 107, 108, 109, 110, 111, 112, 113, 114, 115, 116, 117, 118, 119, 120</t>
+          <t>95-120</t>
         </is>
       </c>
       <c r="H14" t="n">
@@ -13166,13 +13141,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C91442E9-45C2-4AC1-AE78-71087B57079F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E27255AB-8763-405E-B6D2-0A3C33FA4378}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37FFAA63-C5BF-4964-B0EF-7F7304AB6BB7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5AE4579D-F0D4-4F5B-94BA-C9B5106EA546}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1D359C84-22E5-421B-A1AB-6249A441D361}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2E06BFF3-D3AD-49DA-9603-7DC5A5B0D5C7}"/>
 </file>
--- a/generated_model_inputs.xlsx
+++ b/generated_model_inputs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://netorg3699892.sharepoint.com/sites/OneForecast/Shared Documents/Projects/Cement Australia/13 Simulation/06 Python/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_5D13D52ACC30DA92E75E4AE6ADB90931BA360462" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_5D13D52ACC30DA92E75E4AE6ADB90931BA360462" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A37D0002-EDB4-4A04-B478-3D6922E9B947}"/>
   <bookViews>
-    <workbookView xWindow="33870" yWindow="2730" windowWidth="19035" windowHeight="14550" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Network" sheetId="1" r:id="rId1"/>
@@ -8925,7 +8925,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
@@ -9246,9 +9246,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:R21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="11" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -9958,15 +9972,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="ef0ff67e-9087-4832-8b9d-0b53066cc775">
@@ -9975,6 +9980,15 @@
     <TaxCatchAll xmlns="89e87ded-6359-4f8b-890f-4b93e2ce9d62" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -10233,20 +10247,20 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FE8FB33B-77C1-497A-8D8D-97EFCEB699BF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0ADF06DC-4C11-4392-921B-5577076E3FFD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="ef0ff67e-9087-4832-8b9d-0b53066cc775"/>
     <ds:schemaRef ds:uri="89e87ded-6359-4f8b-890f-4b93e2ce9d62"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FE8FB33B-77C1-497A-8D8D-97EFCEB699BF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/generated_model_inputs.xlsx
+++ b/generated_model_inputs.xlsx
@@ -7617,7 +7617,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-12-18 04:25:44</t>
+          <t>2025-12-18 04:38:33</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -7634,7 +7634,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-12-18 04:25:44</t>
+          <t>2025-12-18 04:38:33</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -7651,7 +7651,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-12-18 04:25:44</t>
+          <t>2025-12-18 04:38:33</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -7668,7 +7668,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-12-18 04:25:44</t>
+          <t>2025-12-18 04:38:33</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -7685,7 +7685,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-12-18 04:25:44</t>
+          <t>2025-12-18 04:38:33</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -7702,7 +7702,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-12-18 04:25:44</t>
+          <t>2025-12-18 04:38:33</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -7719,7 +7719,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-12-18 04:25:44</t>
+          <t>2025-12-18 04:38:33</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -7736,7 +7736,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-12-18 04:25:44</t>
+          <t>2025-12-18 04:38:33</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -7753,7 +7753,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-12-18 04:25:44</t>
+          <t>2025-12-18 04:38:33</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -7770,7 +7770,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025-12-18 04:25:44</t>
+          <t>2025-12-18 04:38:33</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -7787,7 +7787,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2025-12-18 04:25:45</t>
+          <t>2025-12-18 04:38:33</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -7804,7 +7804,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2025-12-18 04:25:45</t>
+          <t>2025-12-18 04:38:33</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -7821,7 +7821,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025-12-18 04:25:45</t>
+          <t>2025-12-18 04:38:33</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -7838,7 +7838,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2025-12-18 04:25:45</t>
+          <t>2025-12-18 04:38:33</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -7855,7 +7855,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2025-12-18 04:25:45</t>
+          <t>2025-12-18 04:38:33</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -7872,7 +7872,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2025-12-18 04:25:45</t>
+          <t>2025-12-18 04:38:33</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -7889,7 +7889,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2025-12-18 04:25:45</t>
+          <t>2025-12-18 04:38:33</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -7906,7 +7906,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2025-12-18 04:25:45</t>
+          <t>2025-12-18 04:38:33</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -7923,7 +7923,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2025-12-18 04:25:45</t>
+          <t>2025-12-18 04:38:33</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -7940,7 +7940,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2025-12-18 04:25:45</t>
+          <t>2025-12-18 04:38:33</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -7957,7 +7957,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2025-12-18 04:25:45</t>
+          <t>2025-12-18 04:38:33</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -7974,7 +7974,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2025-12-18 04:25:45</t>
+          <t>2025-12-18 04:38:33</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -7991,7 +7991,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2025-12-18 04:25:45</t>
+          <t>2025-12-18 04:38:33</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -8008,7 +8008,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2025-12-18 04:25:45</t>
+          <t>2025-12-18 04:38:34</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -8025,7 +8025,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025-12-18 04:25:45</t>
+          <t>2025-12-18 04:38:34</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -8042,7 +8042,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2025-12-18 04:25:45</t>
+          <t>2025-12-18 04:38:34</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -8059,7 +8059,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2025-12-18 04:25:45</t>
+          <t>2025-12-18 04:38:34</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -8076,7 +8076,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2025-12-18 04:25:46</t>
+          <t>2025-12-18 04:38:34</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -8093,7 +8093,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2025-12-18 04:25:46</t>
+          <t>2025-12-18 04:38:35</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -8110,7 +8110,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2025-12-18 04:25:46</t>
+          <t>2025-12-18 04:38:35</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -8127,7 +8127,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025-12-18 04:25:46</t>
+          <t>2025-12-18 04:38:35</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -8144,7 +8144,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2025-12-18 04:25:47</t>
+          <t>2025-12-18 04:38:35</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">

--- a/generated_model_inputs.xlsx
+++ b/generated_model_inputs.xlsx
@@ -7617,7 +7617,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-12-18 04:38:33</t>
+          <t>2025-12-18 05:23:05</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -7634,7 +7634,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-12-18 04:38:33</t>
+          <t>2025-12-18 05:23:05</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -7651,7 +7651,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-12-18 04:38:33</t>
+          <t>2025-12-18 05:23:05</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -7668,7 +7668,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-12-18 04:38:33</t>
+          <t>2025-12-18 05:23:05</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -7685,7 +7685,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-12-18 04:38:33</t>
+          <t>2025-12-18 05:23:05</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -7702,7 +7702,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-12-18 04:38:33</t>
+          <t>2025-12-18 05:23:05</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -7719,7 +7719,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-12-18 04:38:33</t>
+          <t>2025-12-18 05:23:05</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -7736,7 +7736,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-12-18 04:38:33</t>
+          <t>2025-12-18 05:23:05</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -7753,7 +7753,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-12-18 04:38:33</t>
+          <t>2025-12-18 05:23:05</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -7770,7 +7770,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025-12-18 04:38:33</t>
+          <t>2025-12-18 05:23:05</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -7787,7 +7787,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2025-12-18 04:38:33</t>
+          <t>2025-12-18 05:23:05</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -7804,7 +7804,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2025-12-18 04:38:33</t>
+          <t>2025-12-18 05:23:05</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -7821,7 +7821,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025-12-18 04:38:33</t>
+          <t>2025-12-18 05:23:05</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -7838,7 +7838,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2025-12-18 04:38:33</t>
+          <t>2025-12-18 05:23:05</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -7855,7 +7855,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2025-12-18 04:38:33</t>
+          <t>2025-12-18 05:23:05</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -7872,7 +7872,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2025-12-18 04:38:33</t>
+          <t>2025-12-18 05:23:05</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -7889,7 +7889,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2025-12-18 04:38:33</t>
+          <t>2025-12-18 05:23:05</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -7906,7 +7906,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2025-12-18 04:38:33</t>
+          <t>2025-12-18 05:23:05</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -7923,7 +7923,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2025-12-18 04:38:33</t>
+          <t>2025-12-18 05:23:05</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -7940,7 +7940,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2025-12-18 04:38:33</t>
+          <t>2025-12-18 05:23:05</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -7957,7 +7957,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2025-12-18 04:38:33</t>
+          <t>2025-12-18 05:23:05</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -7974,7 +7974,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2025-12-18 04:38:33</t>
+          <t>2025-12-18 05:23:05</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -7991,7 +7991,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2025-12-18 04:38:33</t>
+          <t>2025-12-18 05:23:05</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -8008,7 +8008,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2025-12-18 04:38:34</t>
+          <t>2025-12-18 05:23:06</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -8025,7 +8025,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025-12-18 04:38:34</t>
+          <t>2025-12-18 05:23:06</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -8042,7 +8042,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2025-12-18 04:38:34</t>
+          <t>2025-12-18 05:23:06</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -8059,7 +8059,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2025-12-18 04:38:34</t>
+          <t>2025-12-18 05:23:06</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -8076,7 +8076,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2025-12-18 04:38:34</t>
+          <t>2025-12-18 05:23:06</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -8093,7 +8093,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2025-12-18 04:38:35</t>
+          <t>2025-12-18 05:23:07</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -8110,7 +8110,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2025-12-18 04:38:35</t>
+          <t>2025-12-18 05:23:07</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -8127,7 +8127,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025-12-18 04:38:35</t>
+          <t>2025-12-18 05:23:07</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -8144,7 +8144,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2025-12-18 04:38:35</t>
+          <t>2025-12-18 05:23:07</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">

--- a/generated_model_inputs.xlsx
+++ b/generated_model_inputs.xlsx
@@ -7617,7 +7617,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-12-18 05:23:05</t>
+          <t>2025-12-18 06:57:15</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -7634,7 +7634,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-12-18 05:23:05</t>
+          <t>2025-12-18 06:57:15</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -7651,7 +7651,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-12-18 05:23:05</t>
+          <t>2025-12-18 06:57:15</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -7668,7 +7668,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-12-18 05:23:05</t>
+          <t>2025-12-18 06:57:15</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -7685,7 +7685,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-12-18 05:23:05</t>
+          <t>2025-12-18 06:57:15</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -7702,7 +7702,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-12-18 05:23:05</t>
+          <t>2025-12-18 06:57:15</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -7719,7 +7719,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-12-18 05:23:05</t>
+          <t>2025-12-18 06:57:15</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -7736,7 +7736,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-12-18 05:23:05</t>
+          <t>2025-12-18 06:57:15</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -7753,7 +7753,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-12-18 05:23:05</t>
+          <t>2025-12-18 06:57:15</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -7770,7 +7770,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025-12-18 05:23:05</t>
+          <t>2025-12-18 06:57:15</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -7787,7 +7787,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2025-12-18 05:23:05</t>
+          <t>2025-12-18 06:57:15</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -7804,7 +7804,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2025-12-18 05:23:05</t>
+          <t>2025-12-18 06:57:15</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -7821,7 +7821,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025-12-18 05:23:05</t>
+          <t>2025-12-18 06:57:15</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -7838,7 +7838,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2025-12-18 05:23:05</t>
+          <t>2025-12-18 06:57:15</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -7855,7 +7855,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2025-12-18 05:23:05</t>
+          <t>2025-12-18 06:57:15</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -7872,7 +7872,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2025-12-18 05:23:05</t>
+          <t>2025-12-18 06:57:15</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -7889,7 +7889,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2025-12-18 05:23:05</t>
+          <t>2025-12-18 06:57:15</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -7906,7 +7906,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2025-12-18 05:23:05</t>
+          <t>2025-12-18 06:57:15</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -7923,7 +7923,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2025-12-18 05:23:05</t>
+          <t>2025-12-18 06:57:15</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -7940,7 +7940,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2025-12-18 05:23:05</t>
+          <t>2025-12-18 06:57:15</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -7957,7 +7957,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2025-12-18 05:23:05</t>
+          <t>2025-12-18 06:57:15</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -7974,7 +7974,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2025-12-18 05:23:05</t>
+          <t>2025-12-18 06:57:15</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -7991,7 +7991,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2025-12-18 05:23:05</t>
+          <t>2025-12-18 06:57:15</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -8008,7 +8008,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2025-12-18 05:23:06</t>
+          <t>2025-12-18 06:57:15</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -8025,7 +8025,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025-12-18 05:23:06</t>
+          <t>2025-12-18 06:57:15</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -8042,7 +8042,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2025-12-18 05:23:06</t>
+          <t>2025-12-18 06:57:16</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -8059,7 +8059,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2025-12-18 05:23:06</t>
+          <t>2025-12-18 06:57:16</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -8076,7 +8076,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2025-12-18 05:23:06</t>
+          <t>2025-12-18 06:57:16</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -8093,7 +8093,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2025-12-18 05:23:07</t>
+          <t>2025-12-18 06:57:16</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -8110,7 +8110,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2025-12-18 05:23:07</t>
+          <t>2025-12-18 06:57:16</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -8127,7 +8127,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025-12-18 05:23:07</t>
+          <t>2025-12-18 06:57:17</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -8144,7 +8144,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2025-12-18 05:23:07</t>
+          <t>2025-12-18 06:57:17</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">

--- a/generated_model_inputs.xlsx
+++ b/generated_model_inputs.xlsx
@@ -7617,7 +7617,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-12-18 06:57:15</t>
+          <t>2025-12-18 07:57:12</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -7634,7 +7634,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-12-18 06:57:15</t>
+          <t>2025-12-18 07:57:12</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -7651,7 +7651,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-12-18 06:57:15</t>
+          <t>2025-12-18 07:57:12</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -7668,7 +7668,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-12-18 06:57:15</t>
+          <t>2025-12-18 07:57:12</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -7685,7 +7685,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-12-18 06:57:15</t>
+          <t>2025-12-18 07:57:12</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -7702,7 +7702,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-12-18 06:57:15</t>
+          <t>2025-12-18 07:57:12</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -7719,7 +7719,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-12-18 06:57:15</t>
+          <t>2025-12-18 07:57:12</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -7736,7 +7736,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-12-18 06:57:15</t>
+          <t>2025-12-18 07:57:12</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -7753,7 +7753,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-12-18 06:57:15</t>
+          <t>2025-12-18 07:57:12</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -7770,7 +7770,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025-12-18 06:57:15</t>
+          <t>2025-12-18 07:57:12</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -7787,7 +7787,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2025-12-18 06:57:15</t>
+          <t>2025-12-18 07:57:12</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -7804,7 +7804,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2025-12-18 06:57:15</t>
+          <t>2025-12-18 07:57:12</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -7821,7 +7821,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025-12-18 06:57:15</t>
+          <t>2025-12-18 07:57:12</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -7838,7 +7838,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2025-12-18 06:57:15</t>
+          <t>2025-12-18 07:57:12</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -7855,7 +7855,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2025-12-18 06:57:15</t>
+          <t>2025-12-18 07:57:12</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -7872,7 +7872,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2025-12-18 06:57:15</t>
+          <t>2025-12-18 07:57:12</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -7889,7 +7889,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2025-12-18 06:57:15</t>
+          <t>2025-12-18 07:57:12</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -7906,7 +7906,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2025-12-18 06:57:15</t>
+          <t>2025-12-18 07:57:12</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -7923,7 +7923,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2025-12-18 06:57:15</t>
+          <t>2025-12-18 07:57:12</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -7940,7 +7940,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2025-12-18 06:57:15</t>
+          <t>2025-12-18 07:57:12</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -7957,7 +7957,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2025-12-18 06:57:15</t>
+          <t>2025-12-18 07:57:12</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -7974,7 +7974,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2025-12-18 06:57:15</t>
+          <t>2025-12-18 07:57:12</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -7991,7 +7991,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2025-12-18 06:57:15</t>
+          <t>2025-12-18 07:57:12</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -8008,7 +8008,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2025-12-18 06:57:15</t>
+          <t>2025-12-18 07:57:12</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -8025,7 +8025,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025-12-18 06:57:15</t>
+          <t>2025-12-18 07:57:13</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -8042,7 +8042,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2025-12-18 06:57:16</t>
+          <t>2025-12-18 07:57:13</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -8059,7 +8059,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2025-12-18 06:57:16</t>
+          <t>2025-12-18 07:57:13</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -8076,7 +8076,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2025-12-18 06:57:16</t>
+          <t>2025-12-18 07:57:13</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -8093,7 +8093,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2025-12-18 06:57:16</t>
+          <t>2025-12-18 07:57:13</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -8110,7 +8110,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2025-12-18 06:57:16</t>
+          <t>2025-12-18 07:57:14</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -8127,7 +8127,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025-12-18 06:57:17</t>
+          <t>2025-12-18 07:57:14</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -8144,7 +8144,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2025-12-18 06:57:17</t>
+          <t>2025-12-18 07:57:14</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">

--- a/generated_model_inputs.xlsx
+++ b/generated_model_inputs.xlsx
@@ -686,10 +686,6 @@
           <t>GladstoneStoreCL</t>
         </is>
       </c>
-      <c r="S3">
-        <f>IF(ISNA(XLOOKUP(P3,$P$2:P2,$A$2:A2)),IF(COUNTIFS($P$2:P3,P3)=1,IF(COUNTIFS($C$2:C2,C3)=0,1,MAXIFS($A$2:A2,$C$2:C2,C3)+1),A2),XLOOKUP(P3,$P$2:P2,$A$2:A2))</f>
-        <v/>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -7298,7 +7294,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7566,15 +7562,30 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
+          <t>Newcastle</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
           <t>Osborne</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="C18" t="n">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Osborne</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
         <is>
           <t>Port Kembla</t>
         </is>
       </c>
-      <c r="C18" t="n">
+      <c r="C19" t="n">
         <v>940</v>
       </c>
     </row>
@@ -7617,7 +7628,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-12-19 22:42:05</t>
+          <t>2025-12-20 23:22:05</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -7634,7 +7645,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-12-19 22:42:05</t>
+          <t>2025-12-20 23:22:06</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -7651,7 +7662,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-12-19 22:42:05</t>
+          <t>2025-12-20 23:22:06</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -7668,7 +7679,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-12-19 22:42:05</t>
+          <t>2025-12-20 23:22:06</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -7685,7 +7696,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-12-19 22:42:05</t>
+          <t>2025-12-20 23:22:06</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -7702,7 +7713,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-12-19 22:42:05</t>
+          <t>2025-12-20 23:22:06</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -7719,7 +7730,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-12-19 22:42:05</t>
+          <t>2025-12-20 23:22:06</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -7736,7 +7747,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-12-19 22:42:05</t>
+          <t>2025-12-20 23:22:06</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -7753,7 +7764,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-12-19 22:42:05</t>
+          <t>2025-12-20 23:22:06</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -7770,7 +7781,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025-12-19 22:42:06</t>
+          <t>2025-12-20 23:22:06</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -7787,7 +7798,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2025-12-19 22:42:06</t>
+          <t>2025-12-20 23:22:07</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -7804,7 +7815,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2025-12-19 22:42:06</t>
+          <t>2025-12-20 23:22:07</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -7821,7 +7832,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025-12-19 22:42:06</t>
+          <t>2025-12-20 23:22:07</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -7831,14 +7842,14 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>SHIP_DISTANCES -&gt; SHIP_DISTANCES, rows=17</t>
+          <t>SHIP_DISTANCES -&gt; SHIP_DISTANCES, rows=18</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2025-12-19 22:42:06</t>
+          <t>2025-12-20 23:22:07</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -7855,7 +7866,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2025-12-19 22:42:06</t>
+          <t>2025-12-20 23:22:07</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -7872,7 +7883,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2025-12-19 22:42:06</t>
+          <t>2025-12-20 23:22:07</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -7889,7 +7900,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2025-12-19 22:42:06</t>
+          <t>2025-12-20 23:22:07</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -7906,7 +7917,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2025-12-19 22:42:06</t>
+          <t>2025-12-20 23:22:07</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -7923,7 +7934,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2025-12-19 22:42:06</t>
+          <t>2025-12-20 23:22:07</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -7940,7 +7951,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2025-12-19 22:42:06</t>
+          <t>2025-12-20 23:22:07</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -7957,7 +7968,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2025-12-19 22:42:06</t>
+          <t>2025-12-20 23:22:07</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -7974,7 +7985,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2025-12-19 22:42:06</t>
+          <t>2025-12-20 23:22:07</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -7991,7 +8002,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2025-12-19 22:42:06</t>
+          <t>2025-12-20 23:22:07</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -8001,14 +8012,14 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>SHIP_DISTANCES rows=17 -&gt; generated_model_inputs.xlsx</t>
+          <t>SHIP_DISTANCES rows=18 -&gt; generated_model_inputs.xlsx</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2025-12-19 22:42:07</t>
+          <t>2025-12-20 23:22:08</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -8025,7 +8036,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025-12-19 22:42:07</t>
+          <t>2025-12-20 23:22:09</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -8042,7 +8053,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2025-12-19 22:42:08</t>
+          <t>2025-12-20 23:22:09</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -8059,7 +8070,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2025-12-19 22:42:08</t>
+          <t>2025-12-20 23:22:10</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -8076,7 +8087,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2025-12-19 22:42:09</t>
+          <t>2025-12-20 23:22:10</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -8093,7 +8104,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2025-12-19 22:42:10</t>
+          <t>2025-12-20 23:22:11</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -8110,7 +8121,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2025-12-19 22:42:10</t>
+          <t>2025-12-20 23:22:11</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -8127,7 +8138,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025-12-19 22:42:10</t>
+          <t>2025-12-20 23:22:12</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -8144,7 +8155,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2025-12-19 22:42:11</t>
+          <t>2025-12-20 23:22:12</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -8860,7 +8871,7 @@
         <v>3000</v>
       </c>
       <c r="E2" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="F2" t="n">
         <v>500</v>
@@ -9112,7 +9123,7 @@
         <v>3000</v>
       </c>
       <c r="E8" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="F8" t="n">
         <v>500</v>
@@ -9154,7 +9165,7 @@
         <v>3000</v>
       </c>
       <c r="E9" t="n">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="F9" t="n">
         <v>500</v>
@@ -9196,7 +9207,7 @@
         <v>3000</v>
       </c>
       <c r="E10" t="n">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="F10" t="n">
         <v>500</v>
@@ -9238,7 +9249,7 @@
         <v>25000</v>
       </c>
       <c r="E11" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="F11" t="n">
         <v>12500</v>
@@ -9280,7 +9291,7 @@
         <v>120000</v>
       </c>
       <c r="E12" t="n">
-        <v>60000</v>
+        <v>120000</v>
       </c>
       <c r="F12" t="n">
         <v>30000</v>
@@ -9322,7 +9333,7 @@
         <v>14000</v>
       </c>
       <c r="E13" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="F13" t="n">
         <v>2000</v>
@@ -9490,7 +9501,7 @@
         <v>3000</v>
       </c>
       <c r="E17" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="F17" t="n">
         <v>500</v>
@@ -9522,7 +9533,7 @@
         <v>15000</v>
       </c>
       <c r="E18" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="F18" t="n">
         <v>1000</v>
@@ -9564,7 +9575,7 @@
         <v>35000</v>
       </c>
       <c r="E19" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="F19" t="n">
         <v>8000</v>
@@ -9606,7 +9617,7 @@
         <v>25000</v>
       </c>
       <c r="E20" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="F20" t="n">
         <v>5000</v>
@@ -9648,7 +9659,7 @@
         <v>25000</v>
       </c>
       <c r="E21" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="F21" t="n">
         <v>2500</v>
@@ -9732,7 +9743,7 @@
         <v>7500</v>
       </c>
       <c r="E23" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="F23" t="n">
         <v>1000</v>
@@ -9774,7 +9785,7 @@
         <v>14500</v>
       </c>
       <c r="E24" t="n">
-        <v>13500</v>
+        <v>14500</v>
       </c>
       <c r="F24" t="n">
         <v>5000</v>
@@ -9816,7 +9827,7 @@
         <v>86000</v>
       </c>
       <c r="E25" t="n">
-        <v>50000</v>
+        <v>86000</v>
       </c>
       <c r="F25" t="n">
         <v>25000</v>
@@ -9858,7 +9869,7 @@
         <v>15000</v>
       </c>
       <c r="E26" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="F26" t="n">
         <v>4000</v>
@@ -9937,7 +9948,7 @@
         <v>30000</v>
       </c>
       <c r="E28" t="n">
-        <v>10000</v>
+        <v>30000</v>
       </c>
       <c r="F28" t="n">
         <v>5000</v>
@@ -9979,7 +9990,7 @@
         <v>20000</v>
       </c>
       <c r="E29" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="F29" t="n">
         <v>5000</v>
@@ -10021,7 +10032,7 @@
         <v>115000</v>
       </c>
       <c r="E30" t="n">
-        <v>50000</v>
+        <v>115000</v>
       </c>
       <c r="F30" t="n">
         <v>10000</v>
@@ -10063,7 +10074,7 @@
         <v>1500</v>
       </c>
       <c r="E31" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="F31" t="n">
         <v>500</v>
@@ -10105,7 +10116,7 @@
         <v>3600</v>
       </c>
       <c r="E32" t="n">
-        <v>3000</v>
+        <v>3600</v>
       </c>
       <c r="F32" t="n">
         <v>500</v>
@@ -10147,7 +10158,7 @@
         <v>3000</v>
       </c>
       <c r="E33" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="F33" t="n">
         <v>500</v>
@@ -10189,7 +10200,7 @@
         <v>30000</v>
       </c>
       <c r="E34" t="n">
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="F34" t="n">
         <v>5000</v>
@@ -10231,7 +10242,7 @@
         <v>3000</v>
       </c>
       <c r="E35" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="F35" t="n">
         <v>500</v>
@@ -11411,7 +11422,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11452,12 +11463,17 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Unnamed: 6</t>
+          <t>Max Wait Product (H)</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 7</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 8</t>
         </is>
       </c>
     </row>
@@ -11476,18 +11492,16 @@
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F2" t="n">
         <v>5000</v>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>Test</t>
-        </is>
+      <c r="G2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -11513,6 +11527,9 @@
       <c r="F3" t="n">
         <v>5000</v>
       </c>
+      <c r="G3" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -11537,6 +11554,9 @@
       <c r="F4" t="n">
         <v>5000</v>
       </c>
+      <c r="G4" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -11560,6 +11580,9 @@
       </c>
       <c r="F5" t="n">
         <v>5000</v>
+      </c>
+      <c r="G5" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -11637,7 +11660,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>1.5</v>
@@ -11713,7 +11736,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
       <c r="D7" t="n">
         <v>1.5</v>
@@ -11732,7 +11755,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
       <c r="D8" t="n">
         <v>1.5</v>
@@ -11751,7 +11774,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="D9" t="n">
         <v>1.5</v>
@@ -11809,7 +11832,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R21"/>
+  <dimension ref="A1:T20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11908,6 +11931,16 @@
           <t>Route 17</t>
         </is>
       </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Route 18</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Route 19</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -11982,20 +12015,30 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
+          <t>South</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>South</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
           <t>Import_CL</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="R2" t="inlineStr">
         <is>
           <t>Import_CL</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>Import_GBFS</t>
         </is>
       </c>
-      <c r="R2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>Import_GBFS</t>
         </is>
@@ -12047,15 +12090,21 @@
         <v>2.03</v>
       </c>
       <c r="O3" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="P3" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="Q3" t="n">
         <v>3.01</v>
       </c>
-      <c r="P3" t="n">
+      <c r="R3" t="n">
         <v>3.02</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="S3" t="n">
         <v>4.01</v>
       </c>
-      <c r="R3" t="n">
+      <c r="T3" t="n">
         <v>4.02</v>
       </c>
     </row>
@@ -12132,20 +12181,30 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
+          <t>Devonport</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>Devonport</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
           <t>Import_CL</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="R4" t="inlineStr">
         <is>
           <t>Import_CL</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="S4" t="inlineStr">
         <is>
           <t>Import_GBFS</t>
         </is>
       </c>
-      <c r="R4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>Import_GBFS</t>
         </is>
@@ -12224,20 +12283,30 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
+          <t>GP</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>GP</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
           <t>CL</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="R5" t="inlineStr">
         <is>
           <t>CL</t>
         </is>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="S5" t="inlineStr">
         <is>
           <t>GBFS</t>
         </is>
       </c>
-      <c r="R5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>GBFS</t>
         </is>
@@ -12316,20 +12385,30 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
+          <t>GP_STORE</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>GP_STORE</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
           <t>CL_STORE</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
+      <c r="R6" t="inlineStr">
         <is>
           <t>CL_STORE</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="S6" t="inlineStr">
         <is>
           <t>GBFS_STORE</t>
         </is>
       </c>
-      <c r="R6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>GBFS_STORE</t>
         </is>
@@ -12442,30 +12521,40 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
+          <t>Melbourne</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>Melbourne</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
           <t>Newcastle</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>Osborne</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>Newcastle</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
         <is>
           <t>Bulwer Island</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
+      <c r="R9" t="inlineStr">
         <is>
           <t>Port Kembla</t>
         </is>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="S9" t="inlineStr">
         <is>
           <t>Bulwer Island</t>
         </is>
       </c>
-      <c r="R9" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>Port Kembla</t>
         </is>
@@ -12544,20 +12633,30 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
+          <t>GP</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>GP</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
           <t>CL</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
+      <c r="R10" t="inlineStr">
         <is>
           <t>CL</t>
         </is>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="S10" t="inlineStr">
         <is>
           <t>GBFS</t>
         </is>
       </c>
-      <c r="R10" t="inlineStr">
+      <c r="T10" t="inlineStr">
         <is>
           <t>GBFS</t>
         </is>
@@ -12636,20 +12735,30 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
+          <t>GP_STORE</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>GP_STORE</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
           <t>CL_STORE_I</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr">
+      <c r="R11" t="inlineStr">
         <is>
           <t>CL_STORE_I</t>
         </is>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="S11" t="inlineStr">
         <is>
           <t>GBFS_STORE</t>
         </is>
       </c>
-      <c r="R11" t="inlineStr">
+      <c r="T11" t="inlineStr">
         <is>
           <t>GBFS_STORE</t>
         </is>
@@ -12699,7 +12808,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t xml:space="preserve">Product 3 Load </t>
+          <t>Product 3 Load</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -12716,210 +12825,258 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t xml:space="preserve">Product 3 Load </t>
+          <t>Product 3 Store</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>SG_STORE</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>GP_STORE</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Product 3 Store</t>
+          <t>Destination 3 Location</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>SG_STORE</t>
+          <t>Melbourne</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Melbourne</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Osborne</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Osborne</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>GP_STORE</t>
+          <t>Melbourne</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>Newcastle</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>Osborne</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>Osborne</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Destination 3 Location</t>
+          <t>Destination 3 Unload</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>FA</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Osborne</t>
+          <t>FA</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Osborne</t>
+          <t>FA</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>GP</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>GP</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>GP</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>GP</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Destination 3 Unload</t>
+          <t>Destination 3 Store</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>SG_STORE</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>FA</t>
+          <t>FA_STORE</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>FA</t>
+          <t>FA_STORE</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>FA</t>
+          <t>FA_STORE</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>GP</t>
+          <t>GP_STORE</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>GP_STORE</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>GP_STORE</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>GP_STORE</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Destination 3 Store</t>
+          <t>Return Location</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Gladstone</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Gladstone</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Gladstone</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>SG_STORE</t>
+          <t>Gladstone</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>FA_STORE</t>
+          <t>Gladstone</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>FA_STORE</t>
+          <t>Gladstone</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Gladstone</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>Gladstone</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>FA_STORE</t>
+          <t>Gladstone</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>GP_STORE</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Return Location</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
           <t>Gladstone</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>Gladstone</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>Gladstone</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>Gladstone</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>Gladstone</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>Gladstone</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>Gladstone</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>Gladstone</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>Gladstone</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>Gladstone</t>
-        </is>
-      </c>
-      <c r="L21" t="inlineStr">
+      <c r="L20" t="inlineStr">
         <is>
           <t>Devonport</t>
         </is>
       </c>
-      <c r="M21" t="inlineStr">
+      <c r="M20" t="inlineStr">
         <is>
           <t>Devonport</t>
         </is>
       </c>
-      <c r="N21" t="inlineStr">
+      <c r="N20" t="inlineStr">
         <is>
           <t>Devonport</t>
         </is>
       </c>
-      <c r="O21" t="inlineStr">
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>Devonport</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>Devonport</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr">
         <is>
           <t>Import_CL</t>
         </is>
       </c>
-      <c r="P21" t="inlineStr">
+      <c r="R20" t="inlineStr">
         <is>
           <t>Import_CL</t>
         </is>
       </c>
-      <c r="Q21" t="inlineStr">
+      <c r="S20" t="inlineStr">
         <is>
           <t>Import_GBFS</t>
         </is>
       </c>
-      <c r="R21" t="inlineStr">
+      <c r="T20" t="inlineStr">
         <is>
           <t>Import_GBFS</t>
         </is>
@@ -13206,13 +13363,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6DC6FC7C-1994-44A7-AA0F-898DA6400CD6}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{86D234E4-8FBF-4421-B208-B98B514427EF}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E59B8D19-A9B5-437D-80A7-2944FB576E20}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2A8FDA1F-37FD-49A0-BF48-34D5610837D7}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A637863A-3589-400E-BB0A-670CE245113A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0FC3CFE4-7E91-43B1-ABC8-FE3F8171B136}"/>
 </file>
--- a/generated_model_inputs.xlsx
+++ b/generated_model_inputs.xlsx
@@ -7628,7 +7628,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-12-20 23:22:05</t>
+          <t>2025-12-21 00:27:46</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -7645,7 +7645,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-12-20 23:22:06</t>
+          <t>2025-12-21 00:27:47</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -7662,7 +7662,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-12-20 23:22:06</t>
+          <t>2025-12-21 00:27:47</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -7679,7 +7679,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-12-20 23:22:06</t>
+          <t>2025-12-21 00:27:47</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -7696,7 +7696,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-12-20 23:22:06</t>
+          <t>2025-12-21 00:27:47</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -7713,7 +7713,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-12-20 23:22:06</t>
+          <t>2025-12-21 00:27:47</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -7730,7 +7730,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-12-20 23:22:06</t>
+          <t>2025-12-21 00:27:47</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -7747,7 +7747,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-12-20 23:22:06</t>
+          <t>2025-12-21 00:27:47</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -7764,7 +7764,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-12-20 23:22:06</t>
+          <t>2025-12-21 00:27:47</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -7781,7 +7781,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025-12-20 23:22:06</t>
+          <t>2025-12-21 00:27:47</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -7798,7 +7798,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2025-12-20 23:22:07</t>
+          <t>2025-12-21 00:27:47</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -7815,7 +7815,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2025-12-20 23:22:07</t>
+          <t>2025-12-21 00:27:47</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -7832,7 +7832,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025-12-20 23:22:07</t>
+          <t>2025-12-21 00:27:47</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -7849,7 +7849,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2025-12-20 23:22:07</t>
+          <t>2025-12-21 00:27:47</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -7866,7 +7866,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2025-12-20 23:22:07</t>
+          <t>2025-12-21 00:27:47</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -7883,7 +7883,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2025-12-20 23:22:07</t>
+          <t>2025-12-21 00:27:47</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -7900,7 +7900,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2025-12-20 23:22:07</t>
+          <t>2025-12-21 00:27:47</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -7917,7 +7917,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2025-12-20 23:22:07</t>
+          <t>2025-12-21 00:27:47</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -7934,7 +7934,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2025-12-20 23:22:07</t>
+          <t>2025-12-21 00:27:47</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -7951,7 +7951,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2025-12-20 23:22:07</t>
+          <t>2025-12-21 00:27:47</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -7968,7 +7968,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2025-12-20 23:22:07</t>
+          <t>2025-12-21 00:27:47</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -7985,7 +7985,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2025-12-20 23:22:07</t>
+          <t>2025-12-21 00:27:47</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -8002,7 +8002,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2025-12-20 23:22:07</t>
+          <t>2025-12-21 00:27:47</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -8019,7 +8019,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2025-12-20 23:22:08</t>
+          <t>2025-12-21 00:27:48</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -8036,7 +8036,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025-12-20 23:22:09</t>
+          <t>2025-12-21 00:27:48</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -8053,7 +8053,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2025-12-20 23:22:09</t>
+          <t>2025-12-21 00:27:49</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -8070,7 +8070,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2025-12-20 23:22:10</t>
+          <t>2025-12-21 00:27:49</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -8087,7 +8087,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2025-12-20 23:22:10</t>
+          <t>2025-12-21 00:27:50</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -8104,7 +8104,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2025-12-20 23:22:11</t>
+          <t>2025-12-21 00:27:50</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -8121,7 +8121,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2025-12-20 23:22:11</t>
+          <t>2025-12-21 00:27:51</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -8138,7 +8138,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025-12-20 23:22:12</t>
+          <t>2025-12-21 00:27:51</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -8155,7 +8155,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2025-12-20 23:22:12</t>
+          <t>2025-12-21 00:27:52</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -13363,13 +13363,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{86D234E4-8FBF-4421-B208-B98B514427EF}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7DEC0053-B5A3-4713-902C-EE88E0FC5925}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2A8FDA1F-37FD-49A0-BF48-34D5610837D7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA6EBF0B-52E0-46AA-AC42-FBC7EDC04063}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0FC3CFE4-7E91-43B1-ABC8-FE3F8171B136}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{89D3FFB4-7651-4ADA-A78F-91C817760B46}"/>
 </file>
--- a/generated_model_inputs.xlsx
+++ b/generated_model_inputs.xlsx
@@ -7628,7 +7628,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-12-21 00:27:46</t>
+          <t>2025-12-21 22:48:19</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -7645,7 +7645,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-12-21 00:27:47</t>
+          <t>2025-12-21 22:48:19</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -7662,7 +7662,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-12-21 00:27:47</t>
+          <t>2025-12-21 22:48:19</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -7679,7 +7679,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-12-21 00:27:47</t>
+          <t>2025-12-21 22:48:19</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -7696,7 +7696,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-12-21 00:27:47</t>
+          <t>2025-12-21 22:48:19</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -7713,7 +7713,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-12-21 00:27:47</t>
+          <t>2025-12-21 22:48:19</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -7730,7 +7730,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-12-21 00:27:47</t>
+          <t>2025-12-21 22:48:19</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -7747,7 +7747,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-12-21 00:27:47</t>
+          <t>2025-12-21 22:48:19</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -7764,7 +7764,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-12-21 00:27:47</t>
+          <t>2025-12-21 22:48:19</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -7781,7 +7781,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025-12-21 00:27:47</t>
+          <t>2025-12-21 22:48:19</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -7798,7 +7798,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2025-12-21 00:27:47</t>
+          <t>2025-12-21 22:48:19</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -7815,7 +7815,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2025-12-21 00:27:47</t>
+          <t>2025-12-21 22:48:19</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -7832,7 +7832,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025-12-21 00:27:47</t>
+          <t>2025-12-21 22:48:19</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -7849,7 +7849,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2025-12-21 00:27:47</t>
+          <t>2025-12-21 22:48:19</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -7866,7 +7866,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2025-12-21 00:27:47</t>
+          <t>2025-12-21 22:48:19</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -7883,7 +7883,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2025-12-21 00:27:47</t>
+          <t>2025-12-21 22:48:19</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -7900,7 +7900,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2025-12-21 00:27:47</t>
+          <t>2025-12-21 22:48:19</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -7917,7 +7917,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2025-12-21 00:27:47</t>
+          <t>2025-12-21 22:48:19</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -7934,7 +7934,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2025-12-21 00:27:47</t>
+          <t>2025-12-21 22:48:19</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -7951,7 +7951,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2025-12-21 00:27:47</t>
+          <t>2025-12-21 22:48:19</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -7968,7 +7968,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2025-12-21 00:27:47</t>
+          <t>2025-12-21 22:48:19</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -7985,7 +7985,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2025-12-21 00:27:47</t>
+          <t>2025-12-21 22:48:19</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -8002,7 +8002,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2025-12-21 00:27:47</t>
+          <t>2025-12-21 22:48:19</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -8019,7 +8019,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2025-12-21 00:27:48</t>
+          <t>2025-12-21 22:48:20</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -8036,7 +8036,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025-12-21 00:27:48</t>
+          <t>2025-12-21 22:48:20</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -8053,7 +8053,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2025-12-21 00:27:49</t>
+          <t>2025-12-21 22:48:20</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -8070,7 +8070,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2025-12-21 00:27:49</t>
+          <t>2025-12-21 22:48:21</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -8087,7 +8087,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2025-12-21 00:27:50</t>
+          <t>2025-12-21 22:48:21</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -8104,7 +8104,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2025-12-21 00:27:50</t>
+          <t>2025-12-21 22:48:22</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -8121,7 +8121,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2025-12-21 00:27:51</t>
+          <t>2025-12-21 22:48:22</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -8138,7 +8138,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025-12-21 00:27:51</t>
+          <t>2025-12-21 22:48:22</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -8155,7 +8155,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2025-12-21 00:27:52</t>
+          <t>2025-12-21 22:48:23</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -8685,7 +8685,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F12" t="n">
         <v>10</v>
@@ -8719,7 +8719,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="F13" t="n">
         <v>10</v>
@@ -13363,13 +13363,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7DEC0053-B5A3-4713-902C-EE88E0FC5925}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{86E108E9-B29B-4582-8C6F-4CC86BF8FC08}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA6EBF0B-52E0-46AA-AC42-FBC7EDC04063}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0FD7BD9-389A-4610-B026-07B578585B87}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{89D3FFB4-7651-4ADA-A78F-91C817760B46}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C85AD61D-5DBF-446B-9BC8-8597F1388D1B}"/>
 </file>
--- a/generated_model_inputs.xlsx
+++ b/generated_model_inputs.xlsx
@@ -435,7 +435,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S109"/>
+  <dimension ref="A1:S110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -686,6 +686,10 @@
           <t>GladstoneStoreCL</t>
         </is>
       </c>
+      <c r="S3">
+        <f>IF(ISNA(XLOOKUP(P3,$P$2:P2,$A$2:A2)),IF(COUNTIFS($P$2:P3,P3)=1,IF(COUNTIFS($C$2:C2,C3)=0,1,MAXIFS($A$2:A2,$C$2:C2,C3)+1),A2),XLOOKUP(P3,$P$2:P2,$A$2:A2))</f>
+        <v/>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -5920,41 +5924,36 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
+          <t>GBFS_SUPPLY</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Make</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>GBFS</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>Store</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>Port Kembla</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
           <t>GBFS_STORE</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>GBFS</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>Store</t>
-        </is>
-      </c>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t>GBFS</t>
-        </is>
-      </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>Make</t>
-        </is>
-      </c>
-      <c r="I82" t="inlineStr">
-        <is>
-          <t>Port Kembla</t>
-        </is>
-      </c>
-      <c r="J82" t="inlineStr">
-        <is>
-          <t>VRM</t>
-        </is>
-      </c>
       <c r="K82" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
@@ -5973,41 +5972,41 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
+          <t>GBFS_STORE</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>GBFS</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Store</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>GBFS</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>Make</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>Port Kembla</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
           <t>VRM</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>GBFS</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>Make</t>
-        </is>
-      </c>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
-      </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>Store</t>
-        </is>
-      </c>
-      <c r="I83" t="inlineStr">
-        <is>
-          <t>Port Kembla</t>
-        </is>
-      </c>
-      <c r="J83" t="inlineStr">
-        <is>
-          <t>SG_STORE</t>
-        </is>
-      </c>
       <c r="K83" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84">
@@ -6026,41 +6025,41 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
+          <t>VRM</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>GBFS</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Make</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>SG</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>Store</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>Port Kembla</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
           <t>SG_STORE</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>Store</t>
-        </is>
-      </c>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
-      </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>Deliver</t>
-        </is>
-      </c>
-      <c r="I84" t="inlineStr">
-        <is>
-          <t>Port Kembla</t>
-        </is>
-      </c>
-      <c r="J84" t="inlineStr">
-        <is>
-          <t>TRUCK</t>
-        </is>
-      </c>
       <c r="K84" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
@@ -6079,31 +6078,46 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
+          <t>SG_STORE</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>SG</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Store</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>SG</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>Deliver</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>Port Kembla</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
           <t>TRUCK</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>Deliver</t>
-        </is>
-      </c>
-      <c r="G85" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
-      </c>
       <c r="K85" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
@@ -6117,7 +6131,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>SG_STORE</t>
+          <t>TRUCK</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -6127,7 +6141,7 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Store</t>
+          <t>Deliver</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
@@ -6135,28 +6149,13 @@
           <t>SG</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>Move</t>
-        </is>
-      </c>
-      <c r="I86" t="inlineStr">
-        <is>
-          <t>Port Kembla</t>
-        </is>
-      </c>
-      <c r="J86" t="inlineStr">
-        <is>
-          <t>SHIP</t>
-        </is>
-      </c>
       <c r="K86" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
@@ -6200,7 +6199,7 @@
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>TRAIN</t>
+          <t>SHIP</t>
         </is>
       </c>
       <c r="K87" t="n">
@@ -6223,7 +6222,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>SHIP</t>
+          <t>SG_STORE</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -6233,36 +6232,36 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
+          <t>Store</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>SG</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
           <t>Move</t>
         </is>
       </c>
-      <c r="G88" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
-      </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>Store</t>
-        </is>
-      </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>Port Kembla</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>SG_STORE</t>
+          <t>TRAIN</t>
         </is>
       </c>
       <c r="K88" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
@@ -6276,7 +6275,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>TRAIN</t>
+          <t>SHIP</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -6301,7 +6300,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>Clyde</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -6315,7 +6314,7 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
@@ -6354,7 +6353,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>Chullora</t>
+          <t>Clyde</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -6368,7 +6367,7 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
@@ -6407,7 +6406,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>Newcastle</t>
+          <t>Chullora</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -6421,7 +6420,7 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
@@ -6430,46 +6429,46 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Bulwer Island</t>
+          <t>Port Kembla</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>GBFS_STORE</t>
+          <t>TRAIN</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>GBFS</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
+          <t>Move</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>SG</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
           <t>Store</t>
         </is>
       </c>
-      <c r="G92" t="inlineStr">
-        <is>
-          <t>GBFS</t>
-        </is>
-      </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>Make</t>
-        </is>
-      </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>Bulwer Island</t>
+          <t>Newcastle</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>CM10</t>
+          <t>SG_STORE</t>
         </is>
       </c>
       <c r="K92" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="93">
@@ -6518,7 +6517,7 @@
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>CM11</t>
+          <t>CM10</t>
         </is>
       </c>
       <c r="K93" t="n">
@@ -6527,55 +6526,55 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
+        <v>1</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>SG</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Bulwer Island</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>GBFS_STORE</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>GBFS</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Store</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>GBFS</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>Make</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>Bulwer Island</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>CM11</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
         <v>2</v>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>Bulwer Island</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>CM10</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>GBFS</t>
-        </is>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>Make</t>
-        </is>
-      </c>
-      <c r="G94" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
-      </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>Store</t>
-        </is>
-      </c>
-      <c r="I94" t="inlineStr">
-        <is>
-          <t>Bulwer Island</t>
-        </is>
-      </c>
-      <c r="J94" t="inlineStr">
-        <is>
-          <t>SG_STORE</t>
-        </is>
-      </c>
-      <c r="K94" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="95">
@@ -6594,7 +6593,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>CM11</t>
+          <t>CM10</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -6633,7 +6632,7 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
@@ -6647,41 +6646,41 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
+          <t>CM11</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>GBFS</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Make</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>SG</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>Store</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>Bulwer Island</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
           <t>SG_STORE</t>
         </is>
       </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
-      </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>Store</t>
-        </is>
-      </c>
-      <c r="G96" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
-      </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>Move</t>
-        </is>
-      </c>
-      <c r="I96" t="inlineStr">
-        <is>
-          <t>Bulwer Island</t>
-        </is>
-      </c>
-      <c r="J96" t="inlineStr">
-        <is>
-          <t>TRAIN</t>
-        </is>
-      </c>
       <c r="K96" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
@@ -6720,7 +6719,7 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Deliver</t>
+          <t>Move</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
@@ -6730,7 +6729,7 @@
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>TRUCK</t>
+          <t>TRAIN</t>
         </is>
       </c>
       <c r="K97" t="n">
@@ -6739,7 +6738,7 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
@@ -6753,7 +6752,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>TRAIN</t>
+          <t>SG_STORE</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -6763,7 +6762,7 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Move</t>
+          <t>Store</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
@@ -6773,21 +6772,21 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Store</t>
+          <t>Deliver</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>Tennyson</t>
+          <t>Bulwer Island</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>SG_STORE</t>
+          <t>TRUCK</t>
         </is>
       </c>
       <c r="K98" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99">
@@ -6806,7 +6805,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>TRUCK</t>
+          <t>TRAIN</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -6816,7 +6815,7 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Deliver</t>
+          <t>Move</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
@@ -6824,13 +6823,28 @@
           <t>SG</t>
         </is>
       </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>Store</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>Tennyson</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>SG_STORE</t>
+        </is>
+      </c>
       <c r="K99" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
@@ -6839,12 +6853,12 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Tennyson</t>
+          <t>Bulwer Island</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>SG_STORE</t>
+          <t>TRUCK</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -6854,7 +6868,7 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Store</t>
+          <t>Deliver</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
@@ -6862,66 +6876,66 @@
           <t>SG</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>Deliver</t>
-        </is>
-      </c>
-      <c r="I100" t="inlineStr">
-        <is>
-          <t>Tennyson</t>
-        </is>
-      </c>
-      <c r="J100" t="inlineStr">
-        <is>
-          <t>TRUCK</t>
-        </is>
-      </c>
       <c r="K100" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
+        <v>1</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>SG</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Tennyson</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>SG_STORE</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>SG</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Store</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>SG</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>Deliver</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>Tennyson</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>TRUCK</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
         <v>2</v>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>Tennyson</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>TRUCK</t>
-        </is>
-      </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
-      </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>Deliver</t>
-        </is>
-      </c>
-      <c r="G101" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
-      </c>
-      <c r="K101" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
@@ -6930,12 +6944,12 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>Tennyson</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>SG_STORE</t>
+          <t>TRUCK</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -6945,7 +6959,7 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Store</t>
+          <t>Deliver</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
@@ -6953,28 +6967,13 @@
           <t>SG</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>Deliver</t>
-        </is>
-      </c>
-      <c r="I102" t="inlineStr">
-        <is>
-          <t>Melbourne</t>
-        </is>
-      </c>
-      <c r="J102" t="inlineStr">
-        <is>
-          <t>TRUCK</t>
-        </is>
-      </c>
       <c r="K102" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
@@ -6988,31 +6987,46 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
+          <t>SG_STORE</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>SG</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Store</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>SG</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>Deliver</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>Melbourne</t>
+        </is>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
           <t>TRUCK</t>
         </is>
       </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
-      </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>Deliver</t>
-        </is>
-      </c>
-      <c r="G103" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
-      </c>
       <c r="K103" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
@@ -7021,12 +7035,12 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Clyde</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>SG_STORE</t>
+          <t>TRUCK</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -7036,7 +7050,7 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Store</t>
+          <t>Deliver</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
@@ -7044,28 +7058,13 @@
           <t>SG</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>Deliver</t>
-        </is>
-      </c>
-      <c r="I104" t="inlineStr">
-        <is>
-          <t>Clyde</t>
-        </is>
-      </c>
-      <c r="J104" t="inlineStr">
-        <is>
-          <t>TRUCK</t>
-        </is>
-      </c>
       <c r="K104" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
@@ -7079,31 +7078,46 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
+          <t>SG_STORE</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>SG</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>Store</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>SG</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>Deliver</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>Clyde</t>
+        </is>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
           <t>TRUCK</t>
         </is>
       </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
-      </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>Deliver</t>
-        </is>
-      </c>
-      <c r="G105" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
-      </c>
       <c r="K105" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
@@ -7112,12 +7126,12 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Chullora</t>
+          <t>Clyde</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>SG_STORE</t>
+          <t>TRUCK</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -7127,7 +7141,7 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Store</t>
+          <t>Deliver</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
@@ -7135,28 +7149,13 @@
           <t>SG</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>Deliver</t>
-        </is>
-      </c>
-      <c r="I106" t="inlineStr">
-        <is>
-          <t>Chullora</t>
-        </is>
-      </c>
-      <c r="J106" t="inlineStr">
-        <is>
-          <t>TRUCK</t>
-        </is>
-      </c>
       <c r="K106" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
@@ -7170,31 +7169,46 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
+          <t>SG_STORE</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>SG</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Store</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>SG</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>Deliver</t>
+        </is>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>Chullora</t>
+        </is>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
           <t>TRUCK</t>
         </is>
       </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
-      </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>Deliver</t>
-        </is>
-      </c>
-      <c r="G107" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
-      </c>
       <c r="K107" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
@@ -7203,12 +7217,12 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Newcastle</t>
+          <t>Chullora</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>SG_STORE</t>
+          <t>TRUCK</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -7218,7 +7232,7 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Store</t>
+          <t>Deliver</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
@@ -7226,60 +7240,98 @@
           <t>SG</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>Deliver</t>
-        </is>
-      </c>
-      <c r="I108" t="inlineStr">
-        <is>
-          <t>Newcastle</t>
-        </is>
-      </c>
-      <c r="J108" t="inlineStr">
-        <is>
-          <t>TRUCK</t>
-        </is>
-      </c>
       <c r="K108" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
+        <v>1</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>SG</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Newcastle</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>SG_STORE</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>SG</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>Store</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>SG</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>Deliver</t>
+        </is>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>Newcastle</t>
+        </is>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>TRUCK</t>
+        </is>
+      </c>
+      <c r="K109" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
         <v>2</v>
       </c>
-      <c r="B109" t="inlineStr">
+      <c r="B110" t="inlineStr">
         <is>
           <t>SG</t>
         </is>
       </c>
-      <c r="C109" t="inlineStr">
+      <c r="C110" t="inlineStr">
         <is>
           <t>Newcastle</t>
         </is>
       </c>
-      <c r="D109" t="inlineStr">
+      <c r="D110" t="inlineStr">
         <is>
           <t>TRUCK</t>
         </is>
       </c>
-      <c r="E109" t="inlineStr">
+      <c r="E110" t="inlineStr">
         <is>
           <t>SG</t>
         </is>
       </c>
-      <c r="F109" t="inlineStr">
+      <c r="F110" t="inlineStr">
         <is>
           <t>Deliver</t>
         </is>
       </c>
-      <c r="G109" t="inlineStr">
+      <c r="G110" t="inlineStr">
         <is>
           <t>SG</t>
         </is>
       </c>
-      <c r="K109" t="n">
+      <c r="K110" t="n">
         <v>4</v>
       </c>
     </row>
@@ -7628,7 +7680,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-12-21 22:48:19</t>
+          <t>2025-12-22 18:20:04</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -7645,7 +7697,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-12-21 22:48:19</t>
+          <t>2025-12-22 18:20:05</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -7655,14 +7707,14 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>rows=108 from Model Inputs.xlsx</t>
+          <t>rows=109 from Model Inputs.xlsx</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-12-21 22:48:19</t>
+          <t>2025-12-22 18:20:05</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -7679,7 +7731,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-12-21 22:48:19</t>
+          <t>2025-12-22 18:20:05</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -7689,14 +7741,14 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Make -&gt; Make, rows=13</t>
+          <t>Make -&gt; Make, rows=14</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-12-21 22:48:19</t>
+          <t>2025-12-22 18:20:05</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -7713,7 +7765,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-12-21 22:48:19</t>
+          <t>2025-12-22 18:20:05</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -7730,7 +7782,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-12-21 22:48:19</t>
+          <t>2025-12-22 18:20:05</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -7747,7 +7799,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-12-21 22:48:19</t>
+          <t>2025-12-22 18:20:05</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -7764,7 +7816,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-12-21 22:48:19</t>
+          <t>2025-12-22 18:20:05</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -7781,7 +7833,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025-12-21 22:48:19</t>
+          <t>2025-12-22 18:20:05</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -7798,7 +7850,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2025-12-21 22:48:19</t>
+          <t>2025-12-22 18:20:05</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -7815,7 +7867,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2025-12-21 22:48:19</t>
+          <t>2025-12-22 18:20:05</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -7832,7 +7884,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025-12-21 22:48:19</t>
+          <t>2025-12-22 18:20:05</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -7849,7 +7901,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2025-12-21 22:48:19</t>
+          <t>2025-12-22 18:20:05</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -7859,14 +7911,14 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Network rows=108 -&gt; generated_model_inputs.xlsx</t>
+          <t>Network rows=109 -&gt; generated_model_inputs.xlsx</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2025-12-21 22:48:19</t>
+          <t>2025-12-22 18:20:05</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -7883,7 +7935,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2025-12-21 22:48:19</t>
+          <t>2025-12-22 18:20:05</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -7893,14 +7945,14 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Make rows=13 -&gt; generated_model_inputs.xlsx</t>
+          <t>Make rows=14 -&gt; generated_model_inputs.xlsx</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2025-12-21 22:48:19</t>
+          <t>2025-12-22 18:20:05</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -7917,7 +7969,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2025-12-21 22:48:19</t>
+          <t>2025-12-22 18:20:05</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -7934,7 +7986,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2025-12-21 22:48:19</t>
+          <t>2025-12-22 18:20:05</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -7951,7 +8003,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2025-12-21 22:48:19</t>
+          <t>2025-12-22 18:20:05</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -7968,7 +8020,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2025-12-21 22:48:19</t>
+          <t>2025-12-22 18:20:05</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -7985,7 +8037,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2025-12-21 22:48:19</t>
+          <t>2025-12-22 18:20:05</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -8002,7 +8054,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2025-12-21 22:48:19</t>
+          <t>2025-12-22 18:20:05</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -8019,7 +8071,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2025-12-21 22:48:20</t>
+          <t>2025-12-22 18:20:05</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -8036,7 +8088,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025-12-21 22:48:20</t>
+          <t>2025-12-22 18:20:06</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -8053,7 +8105,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2025-12-21 22:48:20</t>
+          <t>2025-12-22 18:20:06</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -8070,7 +8122,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2025-12-21 22:48:21</t>
+          <t>2025-12-22 18:20:07</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -8087,7 +8139,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2025-12-21 22:48:21</t>
+          <t>2025-12-22 18:20:07</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -8104,7 +8156,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2025-12-21 22:48:22</t>
+          <t>2025-12-22 18:20:07</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -8121,7 +8173,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2025-12-21 22:48:22</t>
+          <t>2025-12-22 18:20:08</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -8138,7 +8190,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025-12-21 22:48:22</t>
+          <t>2025-12-22 18:20:08</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -8155,7 +8207,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2025-12-21 22:48:23</t>
+          <t>2025-12-22 18:20:08</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -8243,7 +8295,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8593,35 +8645,25 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>VRM</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>CL</t>
+          <t>GBFS_SUPPLY</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>GP</t>
+          <t>GBFS</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>205</v>
+        <v>60</v>
       </c>
       <c r="F10" t="n">
         <v>10</v>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>1-5,53,96-100,148,191,234,277,320,363</t>
-        </is>
-      </c>
       <c r="H10" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0.88</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -8637,16 +8679,16 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>GBFS</t>
+          <t>CL</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>GP</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>180</v>
+        <v>205</v>
       </c>
       <c r="F11" t="n">
         <v>10</v>
@@ -8660,41 +8702,46 @@
         <v>0.05</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Railton</t>
+          <t>Port Kembla</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>CM4</t>
+          <t>VRM</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>CL</t>
+          <t>GBFS</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>GP</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>65</v>
+        <v>180</v>
       </c>
       <c r="F12" t="n">
         <v>10</v>
       </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1-5,53,96-100,148,191,234,277,320,363</t>
+        </is>
+      </c>
       <c r="H12" t="n">
-        <v>0.15</v>
+        <v>0.05</v>
       </c>
       <c r="I12" t="n">
-        <v>0.88</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -8705,7 +8752,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>CM5</t>
+          <t>CM4</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -8719,7 +8766,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>130</v>
+        <v>65</v>
       </c>
       <c r="F13" t="n">
         <v>10</v>
@@ -8739,29 +8786,63 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>CM5</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>CL</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>CL</t>
+          <t>GP</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="F14" t="n">
         <v>10</v>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="H14" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Railton</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>R1</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>CL</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>150</v>
+      </c>
+      <c r="F15" t="n">
+        <v>10</v>
+      </c>
+      <c r="G15" t="inlineStr">
         <is>
           <t>95-120</t>
         </is>
       </c>
-      <c r="H14" t="n">
+      <c r="H15" t="n">
         <v>0.0298</v>
       </c>
-      <c r="I14" t="n">
+      <c r="I15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11422,7 +11503,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11463,17 +11544,12 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Max Wait Product (H)</t>
+          <t>Unnamed: 6</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 7</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 8</t>
         </is>
       </c>
     </row>
@@ -11495,14 +11571,11 @@
         <v>12</v>
       </c>
       <c r="E2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F2" t="n">
         <v>5000</v>
       </c>
-      <c r="G2" t="n">
-        <v>6</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -11527,9 +11600,6 @@
       <c r="F3" t="n">
         <v>5000</v>
       </c>
-      <c r="G3" t="n">
-        <v>6</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -11554,9 +11624,6 @@
       <c r="F4" t="n">
         <v>5000</v>
       </c>
-      <c r="G4" t="n">
-        <v>6</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -11580,9 +11647,6 @@
       </c>
       <c r="F5" t="n">
         <v>5000</v>
-      </c>
-      <c r="G5" t="n">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -12880,6 +12944,11 @@
           <t>Osborne</t>
         </is>
       </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>Melbourne</t>
+        </is>
+      </c>
       <c r="P17" t="inlineStr">
         <is>
           <t>Osborne</t>
@@ -12927,6 +12996,11 @@
           <t>GP</t>
         </is>
       </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>GP</t>
+        </is>
+      </c>
       <c r="P18" t="inlineStr">
         <is>
           <t>GP</t>
@@ -12970,6 +13044,11 @@
         </is>
       </c>
       <c r="N19" t="inlineStr">
+        <is>
+          <t>GP_STORE</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
         <is>
           <t>GP_STORE</t>
         </is>
@@ -13363,13 +13442,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{86E108E9-B29B-4582-8C6F-4CC86BF8FC08}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE88CA25-650E-4CBF-8073-FE67886C22D1}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0FD7BD9-389A-4610-B026-07B578585B87}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B668DA8E-A63B-4CE9-AA0F-6644AC06AF7A}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C85AD61D-5DBF-446B-9BC8-8597F1388D1B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FA1A007E-160E-4DA0-BF92-507C4367F757}"/>
 </file>
--- a/generated_model_inputs.xlsx
+++ b/generated_model_inputs.xlsx
@@ -435,7 +435,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S110"/>
+  <dimension ref="A1:S111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1421,7 +1421,7 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>GP_STORE</t>
+          <t>GP_IMP_SILO</t>
         </is>
       </c>
       <c r="K13" t="n">
@@ -1439,11 +1439,11 @@
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>Port KemblaStoreGP_STOREGP</t>
+          <t>Port KemblaStoreGP_IMP_SILOGP</t>
         </is>
       </c>
       <c r="O13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P13" t="inlineStr">
         <is>
@@ -3810,7 +3810,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -3824,7 +3824,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>GP_STORE</t>
+          <t>GP_IMP_SILO</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -3844,7 +3844,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Move</t>
+          <t>Make</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -3854,7 +3854,7 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>TRAIN</t>
+          <t>CONVEYOR</t>
         </is>
       </c>
       <c r="K46" t="n">
@@ -3881,7 +3881,7 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -3895,41 +3895,41 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
+          <t>CONVEYOR</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>GP</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Make</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>GP</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Store</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>Port Kembla</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
           <t>GP_STORE</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>GP</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>Store</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>GP</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>Deliver</t>
-        </is>
-      </c>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>Port Kembla</t>
-        </is>
-      </c>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t>TRUCK</t>
-        </is>
-      </c>
       <c r="K47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
@@ -3952,7 +3952,7 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -3966,41 +3966,41 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
+          <t>GP_STORE</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>GP</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Store</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>GP</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Move</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>Port Kembla</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
           <t>TRAIN</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>GP</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>Move</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>GP</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>Store</t>
-        </is>
-      </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>Albury</t>
-        </is>
-      </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>GP_STORE</t>
-        </is>
-      </c>
       <c r="K48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
@@ -4037,7 +4037,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>TRAIN</t>
+          <t>GP_STORE</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -4047,7 +4047,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Move</t>
+          <t>Store</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
@@ -4057,21 +4057,21 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Store</t>
+          <t>Deliver</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>Wagga</t>
+          <t>Port Kembla</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>GP_STORE</t>
+          <t>TRUCK</t>
         </is>
       </c>
       <c r="K49" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
@@ -4094,7 +4094,7 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -4133,7 +4133,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>Clyde</t>
+          <t>Albury</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -4165,7 +4165,7 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -4179,7 +4179,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>TRUCK</t>
+          <t>TRAIN</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -4189,7 +4189,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Deliver</t>
+          <t>Move</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -4197,8 +4197,23 @@
           <t>GP</t>
         </is>
       </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Store</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>Wagga</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>GP_STORE</t>
+        </is>
+      </c>
       <c r="K51" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
@@ -4221,7 +4236,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -4230,46 +4245,46 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Newcastle</t>
+          <t>Port Kembla</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
+          <t>TRAIN</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>GP</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Move</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>GP</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Store</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>Clyde</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
           <t>GP_STORE</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>GP</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>Store</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>GP</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>Deliver</t>
-        </is>
-      </c>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>Newcastle</t>
-        </is>
-      </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>TRUCK</t>
-        </is>
-      </c>
       <c r="K52" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
@@ -4292,7 +4307,7 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -4301,7 +4316,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Newcastle</t>
+          <t>Port Kembla</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -4357,7 +4372,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>Newcastle</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -4387,7 +4402,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>Newcastle</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -4428,7 +4443,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>Newcastle</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -4484,7 +4499,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Osborne</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -4514,7 +4529,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>Osborne</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -4555,7 +4570,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Osborne</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -4611,7 +4626,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Townsville</t>
+          <t>Osborne</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -4641,7 +4656,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>Townsville</t>
+          <t>Osborne</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -4682,7 +4697,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Townsville</t>
+          <t>Osborne</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -4738,7 +4753,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Mackay</t>
+          <t>Townsville</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -4768,7 +4783,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>Mackay</t>
+          <t>Townsville</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -4809,7 +4824,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Mackay</t>
+          <t>Townsville</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -4865,7 +4880,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Wagga</t>
+          <t>Mackay</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -4895,7 +4910,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>Wagga</t>
+          <t>Mackay</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -4936,7 +4951,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Wagga</t>
+          <t>Mackay</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -4992,7 +5007,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Albury</t>
+          <t>Wagga</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -5022,7 +5037,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>Albury</t>
+          <t>Wagga</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -5063,7 +5078,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Albury</t>
+          <t>Wagga</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -5111,7 +5126,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Clyde</t>
+          <t>Albury</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -5141,7 +5156,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>Clyde</t>
+          <t>Albury</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -5174,7 +5189,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Clyde</t>
+          <t>Albury</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -5217,46 +5232,51 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>FA</t>
+          <t>GP</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Gladstone</t>
+          <t>Clyde</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>FA_SUPPLY</t>
+          <t>GP_STORE</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>GP</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Make</t>
+          <t>Store</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>FA</t>
+          <t>GP</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Store</t>
+          <t>Deliver</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>Gladstone</t>
+          <t>Clyde</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>FA_EXPSILO_STORE</t>
+          <t>TRUCK</t>
         </is>
       </c>
       <c r="K68" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P68" t="inlineStr">
         <is>
@@ -5270,56 +5290,41 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>FA</t>
+          <t>GP</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Gladstone</t>
+          <t>Clyde</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>FA_EXPSILO_STORE</t>
+          <t>TRUCK</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>FA</t>
+          <t>GP</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Store</t>
+          <t>Deliver</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>FA</t>
-        </is>
-      </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>Move</t>
-        </is>
-      </c>
-      <c r="I69" t="inlineStr">
-        <is>
-          <t>Gladstone</t>
-        </is>
-      </c>
-      <c r="J69" t="inlineStr">
-        <is>
-          <t>SHIP</t>
+          <t>GP</t>
         </is>
       </c>
       <c r="K69" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
@@ -5333,24 +5338,19 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>SHIP</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
+          <t>FA_SUPPLY</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Make</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
         <is>
           <t>FA</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>Move</t>
-        </is>
-      </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>FA</t>
-        </is>
-      </c>
       <c r="H70" t="inlineStr">
         <is>
           <t>Store</t>
@@ -5358,21 +5358,21 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>Gladstone</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>FA_STORE</t>
+          <t>FA_EXPSILO_STORE</t>
         </is>
       </c>
       <c r="K70" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
@@ -5386,41 +5386,41 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
+          <t>FA_EXPSILO_STORE</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>FA</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Store</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>FA</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>Move</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>Gladstone</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
           <t>SHIP</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>FA</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>Move</t>
-        </is>
-      </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>FA</t>
-        </is>
-      </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>Store</t>
-        </is>
-      </c>
-      <c r="I71" t="inlineStr">
-        <is>
-          <t>Port Kembla</t>
-        </is>
-      </c>
-      <c r="J71" t="inlineStr">
-        <is>
-          <t>FA_STORE</t>
-        </is>
-      </c>
       <c r="K71" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>Osborne</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -5478,7 +5478,7 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
@@ -5487,51 +5487,51 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>Gladstone</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
+          <t>SHIP</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>FA</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Move</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>FA</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>Store</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>Port Kembla</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
           <t>FA_STORE</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>FA</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>Store</t>
-        </is>
-      </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>FA</t>
-        </is>
-      </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>Deliver</t>
-        </is>
-      </c>
-      <c r="I73" t="inlineStr">
-        <is>
-          <t>Melbourne</t>
-        </is>
-      </c>
-      <c r="J73" t="inlineStr">
-        <is>
-          <t>TRUCK</t>
-        </is>
-      </c>
       <c r="K73" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
@@ -5540,46 +5540,46 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Port Kembla</t>
+          <t>Gladstone</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
+          <t>SHIP</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>FA</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Move</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>FA</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Store</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>Osborne</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
           <t>FA_STORE</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>FA</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>Store</t>
-        </is>
-      </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>FA</t>
-        </is>
-      </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>Deliver</t>
-        </is>
-      </c>
-      <c r="I74" t="inlineStr">
-        <is>
-          <t>Port Kembla</t>
-        </is>
-      </c>
-      <c r="J74" t="inlineStr">
-        <is>
-          <t>TRUCK</t>
-        </is>
-      </c>
       <c r="K74" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="75">
@@ -5593,7 +5593,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Osborne</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -5623,7 +5623,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>Osborne</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -5637,78 +5637,108 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
+        <v>1</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>FA</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Port Kembla</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>FA_STORE</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>FA</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Store</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>FA</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Deliver</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>Port Kembla</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>TRUCK</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
         <v>2</v>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>FA</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>Melbourne</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>TRUCK</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>FA</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>Deliver</t>
-        </is>
-      </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>FA</t>
-        </is>
-      </c>
-      <c r="K76" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
+        <v>1</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>FA</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Osborne</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>FA_STORE</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>FA</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Store</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>FA</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>Deliver</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>Osborne</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>TRUCK</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
         <v>2</v>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>FA</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>Port Kembla</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>TRUCK</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>FA</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>Deliver</t>
-        </is>
-      </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>FA</t>
-        </is>
-      </c>
-      <c r="K77" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="78">
@@ -5722,7 +5752,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Osborne</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -5751,55 +5781,40 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>FA</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Import_GBFS</t>
+          <t>Port Kembla</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>GBFS_STORE</t>
+          <t>TRUCK</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>GBFS</t>
+          <t>FA</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Store</t>
+          <t>Deliver</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>GBFS</t>
-        </is>
-      </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>Move</t>
-        </is>
-      </c>
-      <c r="I79" t="inlineStr">
-        <is>
-          <t>Import_GBFS</t>
-        </is>
-      </c>
-      <c r="J79" t="inlineStr">
-        <is>
-          <t>SHIP</t>
+          <t>FA</t>
         </is>
       </c>
       <c r="K79" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="80">
@@ -5808,109 +5823,94 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>FA</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Import_GBFS</t>
+          <t>Osborne</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>SHIP</t>
+          <t>TRUCK</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>GBFS</t>
+          <t>FA</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Move</t>
+          <t>Deliver</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>GBFS</t>
-        </is>
-      </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>Store</t>
-        </is>
-      </c>
-      <c r="I80" t="inlineStr">
-        <is>
-          <t>Port Kembla</t>
-        </is>
-      </c>
-      <c r="J80" t="inlineStr">
-        <is>
-          <t>GBFS_STORE</t>
+          <t>FA</t>
         </is>
       </c>
       <c r="K80" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
+        <v>1</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>SG</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Import_GBFS</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>GBFS_STORE</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>GBFS</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Store</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>GBFS</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>Move</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>Import_GBFS</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>SHIP</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
         <v>2</v>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>Import_GBFS</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>SHIP</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>GBFS</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>Move</t>
-        </is>
-      </c>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t>GBFS</t>
-        </is>
-      </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>Store</t>
-        </is>
-      </c>
-      <c r="I81" t="inlineStr">
-        <is>
-          <t>Bulwer Island</t>
-        </is>
-      </c>
-      <c r="J81" t="inlineStr">
-        <is>
-          <t>GBFS_STORE</t>
-        </is>
-      </c>
-      <c r="K81" t="n">
-        <v>3</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
@@ -5919,17 +5919,22 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Port Kembla</t>
+          <t>Import_GBFS</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>GBFS_SUPPLY</t>
+          <t>SHIP</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>GBFS</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Make</t>
+          <t>Move</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
@@ -5944,7 +5949,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>Port Kembla</t>
+          <t>Bulwer Island</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -5953,12 +5958,12 @@
         </is>
       </c>
       <c r="K82" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
@@ -5972,46 +5977,41 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
+          <t>GBFS_SUPPLY</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Make</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>GBFS</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>Store</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>Port Kembla</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
           <t>GBFS_STORE</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>GBFS</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>Store</t>
-        </is>
-      </c>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t>GBFS</t>
-        </is>
-      </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>Make</t>
-        </is>
-      </c>
-      <c r="I83" t="inlineStr">
-        <is>
-          <t>Port Kembla</t>
-        </is>
-      </c>
-      <c r="J83" t="inlineStr">
-        <is>
-          <t>VRM</t>
-        </is>
-      </c>
       <c r="K83" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
@@ -6025,46 +6025,46 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
+          <t>GBFS_STORE</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>GBFS</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Store</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>GBFS</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>Make</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>Port Kembla</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
           <t>VRM</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>GBFS</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>Make</t>
-        </is>
-      </c>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
-      </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>Store</t>
-        </is>
-      </c>
-      <c r="I84" t="inlineStr">
-        <is>
-          <t>Port Kembla</t>
-        </is>
-      </c>
-      <c r="J84" t="inlineStr">
-        <is>
-          <t>SG_STORE</t>
-        </is>
-      </c>
       <c r="K84" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
@@ -6078,46 +6078,46 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
+          <t>VRM</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>GBFS</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Make</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>SG</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>Store</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>Port Kembla</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
           <t>SG_STORE</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>Store</t>
-        </is>
-      </c>
-      <c r="G85" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
-      </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>Deliver</t>
-        </is>
-      </c>
-      <c r="I85" t="inlineStr">
-        <is>
-          <t>Port Kembla</t>
-        </is>
-      </c>
-      <c r="J85" t="inlineStr">
-        <is>
-          <t>TRUCK</t>
-        </is>
-      </c>
       <c r="K85" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
@@ -6131,79 +6131,79 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
+          <t>SG_STORE</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>SG</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Store</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>SG</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>Deliver</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>Port Kembla</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
           <t>TRUCK</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>Deliver</t>
-        </is>
-      </c>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
-      </c>
       <c r="K86" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
+        <v>5</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>SG</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Port Kembla</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>TRUCK</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>SG</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Deliver</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>SG</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
         <v>4</v>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>Port Kembla</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>SG_STORE</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
-      </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>Store</t>
-        </is>
-      </c>
-      <c r="G87" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
-      </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>Move</t>
-        </is>
-      </c>
-      <c r="I87" t="inlineStr">
-        <is>
-          <t>Port Kembla</t>
-        </is>
-      </c>
-      <c r="J87" t="inlineStr">
-        <is>
-          <t>SHIP</t>
-        </is>
-      </c>
-      <c r="K87" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="88">
@@ -6252,7 +6252,7 @@
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>TRAIN</t>
+          <t>SHIP</t>
         </is>
       </c>
       <c r="K88" t="n">
@@ -6261,7 +6261,7 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
@@ -6275,7 +6275,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>SHIP</t>
+          <t>SG_STORE</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -6285,31 +6285,31 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
+          <t>Store</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>SG</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
           <t>Move</t>
         </is>
       </c>
-      <c r="G89" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
-      </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>Store</t>
-        </is>
-      </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>Port Kembla</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>SG_STORE</t>
+          <t>TRAIN</t>
         </is>
       </c>
       <c r="K89" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90">
@@ -6328,7 +6328,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>TRAIN</t>
+          <t>SHIP</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -6353,7 +6353,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>Clyde</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -6406,7 +6406,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>Chullora</t>
+          <t>Clyde</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -6459,7 +6459,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>Newcastle</t>
+          <t>Chullora</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -6473,7 +6473,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
@@ -6482,46 +6482,46 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Bulwer Island</t>
+          <t>Port Kembla</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>GBFS_STORE</t>
+          <t>TRAIN</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>GBFS</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
+          <t>Move</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>SG</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
           <t>Store</t>
         </is>
       </c>
-      <c r="G93" t="inlineStr">
-        <is>
-          <t>GBFS</t>
-        </is>
-      </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>Make</t>
-        </is>
-      </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>Bulwer Island</t>
+          <t>Newcastle</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>CM10</t>
+          <t>SG_STORE</t>
         </is>
       </c>
       <c r="K93" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="94">
@@ -6570,7 +6570,7 @@
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>CM11</t>
+          <t>CM10</t>
         </is>
       </c>
       <c r="K94" t="n">
@@ -6579,55 +6579,55 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
+        <v>1</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>SG</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Bulwer Island</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>GBFS_STORE</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>GBFS</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Store</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>GBFS</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>Make</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>Bulwer Island</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>CM11</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
         <v>2</v>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>Bulwer Island</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>CM10</t>
-        </is>
-      </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>GBFS</t>
-        </is>
-      </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>Make</t>
-        </is>
-      </c>
-      <c r="G95" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
-      </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>Store</t>
-        </is>
-      </c>
-      <c r="I95" t="inlineStr">
-        <is>
-          <t>Bulwer Island</t>
-        </is>
-      </c>
-      <c r="J95" t="inlineStr">
-        <is>
-          <t>SG_STORE</t>
-        </is>
-      </c>
-      <c r="K95" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="96">
@@ -6646,7 +6646,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>CM11</t>
+          <t>CM10</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -6685,7 +6685,7 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
@@ -6699,41 +6699,41 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
+          <t>CM11</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>GBFS</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Make</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>SG</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>Store</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>Bulwer Island</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
           <t>SG_STORE</t>
         </is>
       </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
-      </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>Store</t>
-        </is>
-      </c>
-      <c r="G97" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
-      </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>Move</t>
-        </is>
-      </c>
-      <c r="I97" t="inlineStr">
-        <is>
-          <t>Bulwer Island</t>
-        </is>
-      </c>
-      <c r="J97" t="inlineStr">
-        <is>
-          <t>TRAIN</t>
-        </is>
-      </c>
       <c r="K97" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -6772,7 +6772,7 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Deliver</t>
+          <t>Move</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
@@ -6782,7 +6782,7 @@
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>TRUCK</t>
+          <t>TRAIN</t>
         </is>
       </c>
       <c r="K98" t="n">
@@ -6791,7 +6791,7 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
@@ -6805,7 +6805,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>TRAIN</t>
+          <t>SG_STORE</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -6815,7 +6815,7 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Move</t>
+          <t>Store</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
@@ -6825,21 +6825,21 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Store</t>
+          <t>Deliver</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>Tennyson</t>
+          <t>Bulwer Island</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>SG_STORE</t>
+          <t>TRUCK</t>
         </is>
       </c>
       <c r="K99" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100">
@@ -6858,7 +6858,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>TRUCK</t>
+          <t>TRAIN</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -6868,7 +6868,7 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Deliver</t>
+          <t>Move</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
@@ -6876,13 +6876,28 @@
           <t>SG</t>
         </is>
       </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>Store</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>Tennyson</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>SG_STORE</t>
+        </is>
+      </c>
       <c r="K100" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
@@ -6891,12 +6906,12 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Tennyson</t>
+          <t>Bulwer Island</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>SG_STORE</t>
+          <t>TRUCK</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -6906,7 +6921,7 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Store</t>
+          <t>Deliver</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
@@ -6914,66 +6929,66 @@
           <t>SG</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>Deliver</t>
-        </is>
-      </c>
-      <c r="I101" t="inlineStr">
-        <is>
-          <t>Tennyson</t>
-        </is>
-      </c>
-      <c r="J101" t="inlineStr">
-        <is>
-          <t>TRUCK</t>
-        </is>
-      </c>
       <c r="K101" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
+        <v>1</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>SG</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Tennyson</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>SG_STORE</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>SG</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Store</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>SG</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>Deliver</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>Tennyson</t>
+        </is>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>TRUCK</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
         <v>2</v>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>Tennyson</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>TRUCK</t>
-        </is>
-      </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
-      </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>Deliver</t>
-        </is>
-      </c>
-      <c r="G102" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
-      </c>
-      <c r="K102" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
@@ -6982,12 +6997,12 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>Tennyson</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>SG_STORE</t>
+          <t>TRUCK</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -6997,7 +7012,7 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Store</t>
+          <t>Deliver</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
@@ -7005,28 +7020,13 @@
           <t>SG</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>Deliver</t>
-        </is>
-      </c>
-      <c r="I103" t="inlineStr">
-        <is>
-          <t>Melbourne</t>
-        </is>
-      </c>
-      <c r="J103" t="inlineStr">
-        <is>
-          <t>TRUCK</t>
-        </is>
-      </c>
       <c r="K103" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
@@ -7040,31 +7040,46 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
+          <t>SG_STORE</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>SG</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>Store</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>SG</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>Deliver</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>Melbourne</t>
+        </is>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
           <t>TRUCK</t>
         </is>
       </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
-      </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>Deliver</t>
-        </is>
-      </c>
-      <c r="G104" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
-      </c>
       <c r="K104" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
@@ -7073,12 +7088,12 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Clyde</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>SG_STORE</t>
+          <t>TRUCK</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -7088,7 +7103,7 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Store</t>
+          <t>Deliver</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
@@ -7096,28 +7111,13 @@
           <t>SG</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>Deliver</t>
-        </is>
-      </c>
-      <c r="I105" t="inlineStr">
-        <is>
-          <t>Clyde</t>
-        </is>
-      </c>
-      <c r="J105" t="inlineStr">
-        <is>
-          <t>TRUCK</t>
-        </is>
-      </c>
       <c r="K105" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
@@ -7131,31 +7131,46 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
+          <t>SG_STORE</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>SG</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>Store</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>SG</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>Deliver</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>Clyde</t>
+        </is>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
           <t>TRUCK</t>
         </is>
       </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
-      </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>Deliver</t>
-        </is>
-      </c>
-      <c r="G106" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
-      </c>
       <c r="K106" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
@@ -7164,12 +7179,12 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Chullora</t>
+          <t>Clyde</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>SG_STORE</t>
+          <t>TRUCK</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -7179,7 +7194,7 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Store</t>
+          <t>Deliver</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
@@ -7187,28 +7202,13 @@
           <t>SG</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>Deliver</t>
-        </is>
-      </c>
-      <c r="I107" t="inlineStr">
-        <is>
-          <t>Chullora</t>
-        </is>
-      </c>
-      <c r="J107" t="inlineStr">
-        <is>
-          <t>TRUCK</t>
-        </is>
-      </c>
       <c r="K107" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
@@ -7222,31 +7222,46 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
+          <t>SG_STORE</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>SG</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>Store</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>SG</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>Deliver</t>
+        </is>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>Chullora</t>
+        </is>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
           <t>TRUCK</t>
         </is>
       </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
-      </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>Deliver</t>
-        </is>
-      </c>
-      <c r="G108" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
-      </c>
       <c r="K108" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
@@ -7255,12 +7270,12 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Newcastle</t>
+          <t>Chullora</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>SG_STORE</t>
+          <t>TRUCK</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -7270,7 +7285,7 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Store</t>
+          <t>Deliver</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
@@ -7278,60 +7293,98 @@
           <t>SG</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>Deliver</t>
-        </is>
-      </c>
-      <c r="I109" t="inlineStr">
-        <is>
-          <t>Newcastle</t>
-        </is>
-      </c>
-      <c r="J109" t="inlineStr">
-        <is>
-          <t>TRUCK</t>
-        </is>
-      </c>
       <c r="K109" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
+        <v>1</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>SG</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Newcastle</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>SG_STORE</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>SG</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>Store</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>SG</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>Deliver</t>
+        </is>
+      </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>Newcastle</t>
+        </is>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>TRUCK</t>
+        </is>
+      </c>
+      <c r="K110" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
         <v>2</v>
       </c>
-      <c r="B110" t="inlineStr">
+      <c r="B111" t="inlineStr">
         <is>
           <t>SG</t>
         </is>
       </c>
-      <c r="C110" t="inlineStr">
+      <c r="C111" t="inlineStr">
         <is>
           <t>Newcastle</t>
         </is>
       </c>
-      <c r="D110" t="inlineStr">
+      <c r="D111" t="inlineStr">
         <is>
           <t>TRUCK</t>
         </is>
       </c>
-      <c r="E110" t="inlineStr">
+      <c r="E111" t="inlineStr">
         <is>
           <t>SG</t>
         </is>
       </c>
-      <c r="F110" t="inlineStr">
+      <c r="F111" t="inlineStr">
         <is>
           <t>Deliver</t>
         </is>
       </c>
-      <c r="G110" t="inlineStr">
+      <c r="G111" t="inlineStr">
         <is>
           <t>SG</t>
         </is>
       </c>
-      <c r="K110" t="n">
+      <c r="K111" t="n">
         <v>4</v>
       </c>
     </row>
@@ -7680,7 +7733,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-12-22 18:20:04</t>
+          <t>2025-12-23 01:13:16</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -7697,7 +7750,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-12-22 18:20:05</t>
+          <t>2025-12-23 01:13:16</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -7707,14 +7760,14 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>rows=109 from Model Inputs.xlsx</t>
+          <t>rows=110 from Model Inputs.xlsx</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-12-22 18:20:05</t>
+          <t>2025-12-23 01:13:16</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -7731,7 +7784,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-12-22 18:20:05</t>
+          <t>2025-12-23 01:13:16</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -7741,14 +7794,14 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Make -&gt; Make, rows=14</t>
+          <t>Make -&gt; Make, rows=15</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-12-22 18:20:05</t>
+          <t>2025-12-23 01:13:16</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -7758,14 +7811,14 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Store -&gt; Store, rows=34</t>
+          <t>Store -&gt; Store, rows=35</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-12-22 18:20:05</t>
+          <t>2025-12-23 01:13:16</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -7782,7 +7835,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-12-22 18:20:05</t>
+          <t>2025-12-23 01:13:16</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -7799,7 +7852,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-12-22 18:20:05</t>
+          <t>2025-12-23 01:13:16</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -7816,7 +7869,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-12-22 18:20:05</t>
+          <t>2025-12-23 01:13:16</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -7833,7 +7886,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025-12-22 18:20:05</t>
+          <t>2025-12-23 01:13:16</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -7850,7 +7903,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2025-12-22 18:20:05</t>
+          <t>2025-12-23 01:13:16</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -7867,7 +7920,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2025-12-22 18:20:05</t>
+          <t>2025-12-23 01:13:16</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -7884,7 +7937,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025-12-22 18:20:05</t>
+          <t>2025-12-23 01:13:16</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -7901,7 +7954,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2025-12-22 18:20:05</t>
+          <t>2025-12-23 01:13:16</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -7911,14 +7964,14 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Network rows=109 -&gt; generated_model_inputs.xlsx</t>
+          <t>Network rows=110 -&gt; generated_model_inputs.xlsx</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2025-12-22 18:20:05</t>
+          <t>2025-12-23 01:13:16</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -7935,7 +7988,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2025-12-22 18:20:05</t>
+          <t>2025-12-23 01:13:16</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -7945,14 +7998,14 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Make rows=14 -&gt; generated_model_inputs.xlsx</t>
+          <t>Make rows=15 -&gt; generated_model_inputs.xlsx</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2025-12-22 18:20:05</t>
+          <t>2025-12-23 01:13:16</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -7962,14 +8015,14 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Store rows=34 -&gt; generated_model_inputs.xlsx</t>
+          <t>Store rows=35 -&gt; generated_model_inputs.xlsx</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2025-12-22 18:20:05</t>
+          <t>2025-12-23 01:13:16</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -7986,7 +8039,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2025-12-22 18:20:05</t>
+          <t>2025-12-23 01:13:17</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -8003,7 +8056,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2025-12-22 18:20:05</t>
+          <t>2025-12-23 01:13:17</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -8020,7 +8073,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2025-12-22 18:20:05</t>
+          <t>2025-12-23 01:13:17</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -8037,7 +8090,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2025-12-22 18:20:05</t>
+          <t>2025-12-23 01:13:17</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -8054,7 +8107,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2025-12-22 18:20:05</t>
+          <t>2025-12-23 01:13:17</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -8071,7 +8124,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2025-12-22 18:20:05</t>
+          <t>2025-12-23 01:13:17</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -8088,7 +8141,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025-12-22 18:20:06</t>
+          <t>2025-12-23 01:13:17</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -8105,7 +8158,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2025-12-22 18:20:06</t>
+          <t>2025-12-23 01:13:18</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -8122,7 +8175,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2025-12-22 18:20:07</t>
+          <t>2025-12-23 01:13:18</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -8139,7 +8192,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2025-12-22 18:20:07</t>
+          <t>2025-12-23 01:13:18</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -8156,7 +8209,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2025-12-22 18:20:07</t>
+          <t>2025-12-23 01:13:19</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -8173,7 +8226,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2025-12-22 18:20:08</t>
+          <t>2025-12-23 01:13:19</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -8190,7 +8243,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025-12-22 18:20:08</t>
+          <t>2025-12-23 01:13:20</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -8207,7 +8260,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2025-12-22 18:20:08</t>
+          <t>2025-12-23 01:13:20</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -8295,7 +8348,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8645,16 +8698,21 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>GBFS_SUPPLY</t>
+          <t>CONVEYOR</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>GP</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>GBFS</t>
+          <t>GP</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>60</v>
+        <v>500</v>
       </c>
       <c r="F10" t="n">
         <v>10</v>
@@ -8674,35 +8732,25 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>VRM</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>CL</t>
+          <t>GBFS_SUPPLY</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>GP</t>
+          <t>GBFS</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>205</v>
+        <v>120</v>
       </c>
       <c r="F11" t="n">
         <v>10</v>
       </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>1-5,53,96-100,148,191,234,277,320,363</t>
-        </is>
-      </c>
       <c r="H11" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.88</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -8718,16 +8766,16 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>GBFS</t>
+          <t>CL</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>GP</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>180</v>
+        <v>205</v>
       </c>
       <c r="F12" t="n">
         <v>10</v>
@@ -8741,41 +8789,46 @@
         <v>0.05</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Railton</t>
+          <t>Port Kembla</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>CM4</t>
+          <t>VRM</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>CL</t>
+          <t>GBFS</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>GP</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>65</v>
+        <v>180</v>
       </c>
       <c r="F13" t="n">
         <v>10</v>
       </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1-5,53,96-100,148,191,234,277,320,363</t>
+        </is>
+      </c>
       <c r="H13" t="n">
-        <v>0.15</v>
+        <v>0.05</v>
       </c>
       <c r="I13" t="n">
-        <v>0.88</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -8786,7 +8839,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>CM5</t>
+          <t>CM4</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -8800,7 +8853,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>130</v>
+        <v>65</v>
       </c>
       <c r="F14" t="n">
         <v>10</v>
@@ -8820,29 +8873,63 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>CM5</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>CL</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>CL</t>
+          <t>GP</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="F15" t="n">
         <v>10</v>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="H15" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Railton</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>R1</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>CL</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>150</v>
+      </c>
+      <c r="F16" t="n">
+        <v>10</v>
+      </c>
+      <c r="G16" t="inlineStr">
         <is>
           <t>95-120</t>
         </is>
       </c>
-      <c r="H15" t="n">
+      <c r="H16" t="n">
         <v>0.0298</v>
       </c>
-      <c r="I15" t="n">
+      <c r="I16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8857,7 +8944,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M35"/>
+  <dimension ref="A1:M36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10017,7 +10104,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>GP_STORE</t>
+          <t>GP_IMP_SILO</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -10059,25 +10146,25 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>SG_STORE</t>
+          <t>GP_STORE</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>GP</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>20000</v>
+        <v>14500</v>
       </c>
       <c r="E29" t="n">
-        <v>20000</v>
+        <v>14500</v>
       </c>
       <c r="F29" t="n">
         <v>5000</v>
       </c>
       <c r="G29" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -10089,37 +10176,37 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>load only 500t/h, Cement/SG, Double Check</t>
+          <t>Existing 7 Silos</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Railton</t>
+          <t>Port Kembla</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>CL_STORE</t>
+          <t>SG_STORE</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>CL</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>115000</v>
+        <v>20000</v>
       </c>
       <c r="E30" t="n">
-        <v>115000</v>
+        <v>20000</v>
       </c>
       <c r="F30" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -10131,7 +10218,7 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>No Shipping</t>
+          <t>load only 500t/h, Cement/SG, Double Check</t>
         </is>
       </c>
     </row>
@@ -10143,22 +10230,22 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>GP_STORE_Q</t>
+          <t>CL_STORE</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>GP</t>
+          <t>CL</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>1500</v>
+        <v>115000</v>
       </c>
       <c r="E31" t="n">
-        <v>1500</v>
+        <v>115000</v>
       </c>
       <c r="F31" t="n">
-        <v>500</v>
+        <v>10000</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -10173,7 +10260,7 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Silo Q, No Shipping</t>
+          <t>No Shipping</t>
         </is>
       </c>
     </row>
@@ -10185,7 +10272,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>GP_STORE_ST</t>
+          <t>GP_STORE_Q</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -10194,10 +10281,10 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>3600</v>
+        <v>1500</v>
       </c>
       <c r="E32" t="n">
-        <v>3600</v>
+        <v>1500</v>
       </c>
       <c r="F32" t="n">
         <v>500</v>
@@ -10215,31 +10302,31 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>Silo S&amp;T, No Shipping</t>
+          <t>Silo Q, No Shipping</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Tennyson</t>
+          <t>Railton</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>SG_STORE</t>
+          <t>GP_STORE_ST</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>GP</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>3000</v>
+        <v>3600</v>
       </c>
       <c r="E33" t="n">
-        <v>3000</v>
+        <v>3600</v>
       </c>
       <c r="F33" t="n">
         <v>500</v>
@@ -10252,61 +10339,61 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t xml:space="preserve">* </t>
+          <t>*</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>Not key for this model</t>
+          <t>Silo S&amp;T, No Shipping</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Townsville</t>
+          <t>Tennyson</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>GP_STORE</t>
+          <t>SG_STORE</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>GP</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>30000</v>
+        <v>3000</v>
       </c>
       <c r="E34" t="n">
-        <v>30000</v>
+        <v>3000</v>
       </c>
       <c r="F34" t="n">
-        <v>5000</v>
+        <v>500</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>*</t>
+          <t xml:space="preserve">* </t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>unload rate 700t/h</t>
+          <t>Not key for this model</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Wagga</t>
+          <t>Townsville</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -10320,26 +10407,68 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>3000</v>
+        <v>30000</v>
       </c>
       <c r="E35" t="n">
-        <v>3000</v>
+        <v>30000</v>
       </c>
       <c r="F35" t="n">
-        <v>500</v>
+        <v>5000</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
+        <v>700</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>unload rate 700t/h</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Wagga</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>GP_STORE</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>GP</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>3000</v>
+      </c>
+      <c r="E36" t="n">
+        <v>3000</v>
+      </c>
+      <c r="F36" t="n">
+        <v>500</v>
+      </c>
+      <c r="G36" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr">
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="inlineStr">
         <is>
           <t xml:space="preserve">* </t>
         </is>
       </c>
-      <c r="K35" t="inlineStr">
+      <c r="K36" t="inlineStr">
         <is>
           <t>Not key for this model</t>
         </is>
@@ -11613,16 +11742,16 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>10</v>
       </c>
       <c r="E4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>5000</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="5">
@@ -11643,10 +11772,10 @@
         <v>10</v>
       </c>
       <c r="E5" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>5000</v>
+        <v>25000</v>
       </c>
     </row>
   </sheetData>
@@ -12749,17 +12878,17 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
+          <t>GP_IMP_SILO</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
           <t>GP_STORE</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>GP_STORE</t>
-        </is>
-      </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>GP_STORE</t>
+          <t>GP_IMP_SILO</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -13442,13 +13571,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE88CA25-650E-4CBF-8073-FE67886C22D1}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9B9952CE-D806-49A4-AC83-FEDCE4676CCC}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B668DA8E-A63B-4CE9-AA0F-6644AC06AF7A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C16EE422-F531-4CE9-8305-F45FF25EAF33}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FA1A007E-160E-4DA0-BF92-507C4367F757}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{024E2D85-74D3-4B09-8C89-CB9DB88D5F78}"/>
 </file>
--- a/generated_model_inputs.xlsx
+++ b/generated_model_inputs.xlsx
@@ -7733,7 +7733,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-12-23 01:13:16</t>
+          <t>2025-12-23 22:54:58</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -7750,7 +7750,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-12-23 01:13:16</t>
+          <t>2025-12-23 22:54:58</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -7767,7 +7767,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-12-23 01:13:16</t>
+          <t>2025-12-23 22:54:58</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -7777,14 +7777,14 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Settings -&gt; Settings, rows=3</t>
+          <t>Settings -&gt; Settings, rows=25</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-12-23 01:13:16</t>
+          <t>2025-12-23 22:54:58</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -7801,7 +7801,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-12-23 01:13:16</t>
+          <t>2025-12-23 22:54:58</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -7818,7 +7818,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-12-23 01:13:16</t>
+          <t>2025-12-23 22:54:58</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -7835,7 +7835,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-12-23 01:13:16</t>
+          <t>2025-12-23 22:54:58</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -7852,7 +7852,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-12-23 01:13:16</t>
+          <t>2025-12-23 22:54:58</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -7869,7 +7869,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-12-23 01:13:16</t>
+          <t>2025-12-23 22:54:58</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -7886,7 +7886,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025-12-23 01:13:16</t>
+          <t>2025-12-23 22:54:59</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -7903,7 +7903,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2025-12-23 01:13:16</t>
+          <t>2025-12-23 22:54:59</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -7920,7 +7920,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2025-12-23 01:13:16</t>
+          <t>2025-12-23 22:54:59</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -7937,7 +7937,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025-12-23 01:13:16</t>
+          <t>2025-12-23 22:54:59</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -7954,7 +7954,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2025-12-23 01:13:16</t>
+          <t>2025-12-23 22:54:59</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -7971,7 +7971,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2025-12-23 01:13:16</t>
+          <t>2025-12-23 22:54:59</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -7981,14 +7981,14 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Settings rows=3 -&gt; generated_model_inputs.xlsx</t>
+          <t>Settings rows=25 -&gt; generated_model_inputs.xlsx</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2025-12-23 01:13:16</t>
+          <t>2025-12-23 22:54:59</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -8005,7 +8005,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2025-12-23 01:13:16</t>
+          <t>2025-12-23 22:54:59</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -8022,7 +8022,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2025-12-23 01:13:16</t>
+          <t>2025-12-23 22:54:59</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -8039,7 +8039,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2025-12-23 01:13:17</t>
+          <t>2025-12-23 22:54:59</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -8056,7 +8056,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2025-12-23 01:13:17</t>
+          <t>2025-12-23 22:54:59</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -8073,7 +8073,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2025-12-23 01:13:17</t>
+          <t>2025-12-23 22:54:59</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -8090,7 +8090,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2025-12-23 01:13:17</t>
+          <t>2025-12-23 22:54:59</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -8107,7 +8107,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2025-12-23 01:13:17</t>
+          <t>2025-12-23 22:54:59</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -8124,7 +8124,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2025-12-23 01:13:17</t>
+          <t>2025-12-23 22:54:59</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -8134,14 +8134,14 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>added=0, updated=0</t>
+          <t>added=16, updated=0</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025-12-23 01:13:17</t>
+          <t>2025-12-23 22:55:00</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -8158,7 +8158,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2025-12-23 01:13:18</t>
+          <t>2025-12-23 22:55:00</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -8175,7 +8175,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2025-12-23 01:13:18</t>
+          <t>2025-12-23 22:55:00</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -8192,7 +8192,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2025-12-23 01:13:18</t>
+          <t>2025-12-23 22:55:01</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -8209,7 +8209,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2025-12-23 01:13:19</t>
+          <t>2025-12-23 22:55:01</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -8226,7 +8226,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2025-12-23 01:13:19</t>
+          <t>2025-12-23 22:55:01</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -8243,7 +8243,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025-12-23 01:13:20</t>
+          <t>2025-12-23 22:55:02</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -8260,7 +8260,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2025-12-23 01:13:20</t>
+          <t>2025-12-23 22:55:02</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -8285,7 +8285,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8308,32 +8308,161 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Number of Simulation Runs</t>
+          <t>horizon_days</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>500</v>
+        <v>365</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Modeling Horizon (#Days)</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>365</v>
+          <t>random_opening</t>
+        </is>
+      </c>
+      <c r="B3" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Time Buckets (Days, Half Days, Hours)</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Hours</t>
+          <t>random_seed</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>progress_step_pct</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>demand_truck_load_tons</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>demand_step_hours</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>require_full_payload</t>
+        </is>
+      </c>
+      <c r="B8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>ship_idle_wait_h</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>ship_max_wait_product_h</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>transporter_wait_h</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>mean_breakdown_duration</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>make_output_choice</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>min_fill_pct</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>step_hours</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>write_plots</t>
+        </is>
+      </c>
+      <c r="B15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>write_csvs</t>
+        </is>
+      </c>
+      <c r="B16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>out_dir</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>sim_outputs</t>
         </is>
       </c>
     </row>
@@ -13571,13 +13700,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9B9952CE-D806-49A4-AC83-FEDCE4676CCC}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E9DDE614-C431-4356-B2CF-405FB7706216}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C16EE422-F531-4CE9-8305-F45FF25EAF33}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9B98720-84ED-4915-9928-A656149833BB}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{024E2D85-74D3-4B09-8C89-CB9DB88D5F78}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8DB1D4-13A9-44FC-85EB-3EFB914C08C5}"/>
 </file>